--- a/System Documentation/Migration/Data-Migration-caDSR-2-MDR-Mapping-2-IT-0706.xlsx
+++ b/System Documentation/Migration/Data-Migration-caDSR-2-MDR-Mapping-2-IT-0706.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\meta\JIRA-28\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A64EC44-1975-44E2-9C52-CD6B94B60A5E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D7F05D-187B-447E-8299-936BF0BF8345}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="1060" windowWidth="16270" windowHeight="7390" tabRatio="596" xr2:uid="{3F80AD38-8D16-427F-8B3E-969FD7735B81}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="596" xr2:uid="{3F80AD38-8D16-427F-8B3E-969FD7735B81}"/>
   </bookViews>
   <sheets>
     <sheet name="Step 1- LOV" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8671" uniqueCount="1015">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8682" uniqueCount="1024">
   <si>
     <t>LOV Type</t>
   </si>
@@ -3439,9 +3439,6 @@
   </si>
   <si>
     <t>CaDSR table</t>
-  </si>
-  <si>
-    <t>Not in sp_org_contact</t>
   </si>
   <si>
     <t xml:space="preserve">CONTACT_ADDRESSES  </t>
@@ -3602,6 +3599,36 @@
   </si>
   <si>
     <t>The Migration Data Source</t>
+  </si>
+  <si>
+    <t>insert into nci_entty_addr (ENTTY_ID,ADDR_TYP_ID,RNK_ORD,ADDR_LINE1,ADDR_LINE2,CITY,STATE_PROV,POSTAL_CD,CNTRY,</t>
+  </si>
+  <si>
+    <t>CREAT_DT,CREAT_USR_ID,LST_UPD_DT,LST_UPD_USR_ID)</t>
+  </si>
+  <si>
+    <t>select o.entty_id, ok.obj_key_id, RANK_ORDER,ADDR_LINE1,ADDR_LINE2,CITY,STATE_PROV,POSTAL_CODE,COUNTRY,</t>
+  </si>
+  <si>
+    <t>DATE_CREATED,CREATED_BY,nvl(DATE_MODIFIED,date_created), MODIFIED_BY</t>
+  </si>
+  <si>
+    <t>from sbr.CONTACT_ADDRESSES c, obj_key ok, nci_entty o where</t>
+  </si>
+  <si>
+    <t>ORG_IDSEQ is not null and c.org_idseq = o.nci_idseq and ok.nci_cd = ATL_NAME and ok.obj_typ_id = 25;</t>
+  </si>
+  <si>
+    <t>instead of QUEST_CONTENTS_EXT for qtl_name in ('CRF','TEMPLATE', 'MODULE') and PROTOCOL_EXT</t>
+  </si>
+  <si>
+    <t>the GIT file S0_9_WA_SP.sql, the inserts begin on lines: 1054, 1109, 1148</t>
+  </si>
+  <si>
+    <t>fixed but not in GIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP_CREATE_FORM_EXT </t>
   </si>
 </sst>
 </file>
@@ -4511,7 +4538,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -4565,6 +4591,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4971,7 +5000,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5265,7 +5294,7 @@
         <v>DATE_CREATED</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>346</v>
@@ -5283,7 +5312,7 @@
         <v>76</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="M8" s="2"/>
     </row>
@@ -5303,7 +5332,7 @@
         <v>DATE_MODIFIED</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>26</v>
@@ -5321,7 +5350,7 @@
         <v>76</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="M9" s="2"/>
     </row>
@@ -5660,7 +5689,7 @@
         <v>DATE_CREATED</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>346</v>
@@ -5678,7 +5707,7 @@
         <v>76</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
@@ -5697,7 +5726,7 @@
         <v>DATE_MODIFIED</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>26</v>
@@ -5715,7 +5744,7 @@
         <v>76</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
@@ -5868,7 +5897,7 @@
         <v>439</v>
       </c>
       <c r="J25" s="18" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="K25" s="12"/>
     </row>
@@ -6456,7 +6485,7 @@
         <v>DATE_CREATED</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>26</v>
@@ -6474,7 +6503,7 @@
         <v>76</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.35">
@@ -6493,7 +6522,7 @@
         <v>DATE_MODIFIED</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>26</v>
@@ -6511,7 +6540,7 @@
         <v>76</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.35">
@@ -6822,7 +6851,7 @@
         <v>76</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.35">
@@ -6859,7 +6888,7 @@
         <v>76</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
@@ -7248,7 +7277,7 @@
         <v>76</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.35">
@@ -7285,7 +7314,7 @@
         <v>76</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.35">
@@ -7559,7 +7588,7 @@
         <v>76</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.35">
@@ -7596,7 +7625,7 @@
         <v>76</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.35">
@@ -7967,7 +7996,7 @@
         <v>76</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.35">
@@ -8004,7 +8033,7 @@
         <v>76</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.35">
@@ -8318,7 +8347,7 @@
       </c>
       <c r="K97" s="12"/>
       <c r="L97" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="98" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -8355,7 +8384,7 @@
         <v>76</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="99" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -8669,7 +8698,7 @@
         <v>76</v>
       </c>
       <c r="L107" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.35">
@@ -8706,7 +8735,7 @@
         <v>76</v>
       </c>
       <c r="L108" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.35">
@@ -9055,7 +9084,7 @@
         <v>76</v>
       </c>
       <c r="L118" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.35">
@@ -9092,7 +9121,7 @@
         <v>76</v>
       </c>
       <c r="L119" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.35">
@@ -9329,7 +9358,7 @@
         <v>76</v>
       </c>
       <c r="L126" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.35">
@@ -9366,7 +9395,7 @@
         <v>76</v>
       </c>
       <c r="L127" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.35">
@@ -9777,7 +9806,7 @@
         <v>76</v>
       </c>
       <c r="L140" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.35">
@@ -9814,7 +9843,7 @@
         <v>76</v>
       </c>
       <c r="L141" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.35">
@@ -10127,10 +10156,10 @@
         <v>432</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="L150" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.35">
@@ -10167,7 +10196,7 @@
         <v>76</v>
       </c>
       <c r="L151" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.35">
@@ -10397,7 +10426,7 @@
         <v>76</v>
       </c>
       <c r="L158" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.35">
@@ -10434,7 +10463,7 @@
         <v>76</v>
       </c>
       <c r="L159" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.35">
@@ -10710,7 +10739,7 @@
         <v>76</v>
       </c>
       <c r="L167" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.35">
@@ -10747,7 +10776,7 @@
         <v>76</v>
       </c>
       <c r="L168" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.35">
@@ -11023,7 +11052,7 @@
         <v>76</v>
       </c>
       <c r="L176" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.35">
@@ -11060,7 +11089,7 @@
         <v>76</v>
       </c>
       <c r="L177" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.35">
@@ -12161,10 +12190,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE507C29-B9A3-44D5-BA2C-F56ACA098446}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12199,7 +12228,7 @@
       <c r="D2" s="83"/>
       <c r="E2" s="83"/>
     </row>
-    <row r="3" spans="1:5" s="127" customFormat="1" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" s="126" customFormat="1" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A3" s="60" t="s">
         <v>465</v>
       </c>
@@ -12207,13 +12236,13 @@
         <v>412</v>
       </c>
       <c r="C3" s="47" t="s">
+        <v>980</v>
+      </c>
+      <c r="D3" s="127" t="s">
+        <v>979</v>
+      </c>
+      <c r="E3" s="83" t="s">
         <v>981</v>
-      </c>
-      <c r="D3" s="128" t="s">
-        <v>980</v>
-      </c>
-      <c r="E3" s="83" t="s">
-        <v>982</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="102" customFormat="1" x14ac:dyDescent="0.35">
@@ -12230,31 +12259,83 @@
       </c>
       <c r="C5" s="60"/>
       <c r="D5" s="86" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E5" s="83" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="102" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="60"/>
       <c r="B6" s="60"/>
       <c r="C6" s="60"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="B7" s="102" t="s">
+      <c r="D6" s="86"/>
+      <c r="E6" s="144"/>
+    </row>
+    <row r="7" spans="1:5" s="102" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="60" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B7" s="60" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="60" t="s">
+        <v>628</v>
+      </c>
+      <c r="D7" s="86" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E7" s="83" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="102" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="60"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="144"/>
+    </row>
+    <row r="9" spans="1:5" s="144" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="60" t="s">
+        <v>848</v>
+      </c>
+      <c r="B9" s="144" t="s">
         <v>927</v>
       </c>
-      <c r="C7" s="102" t="s">
-        <v>979</v>
-      </c>
-      <c r="D7" s="86" t="s">
+      <c r="C9" s="144" t="s">
         <v>978</v>
+      </c>
+      <c r="D9" s="86" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E9" s="144" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E10" s="58" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E11" s="58" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E12" s="58" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E13" s="58" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E14" s="58" t="s">
+        <v>1019</v>
       </c>
     </row>
   </sheetData>
@@ -12310,7 +12391,7 @@
         <v>120</v>
       </c>
       <c r="E1" s="110" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F1" s="110" t="s">
         <v>2</v>
@@ -12318,7 +12399,7 @@
       <c r="G1" s="110" t="s">
         <v>121</v>
       </c>
-      <c r="H1" s="143" t="s">
+      <c r="H1" s="142" t="s">
         <v>122</v>
       </c>
       <c r="I1" s="110" t="s">
@@ -12336,71 +12417,71 @@
       <c r="M1" s="110" t="s">
         <v>128</v>
       </c>
-      <c r="N1" s="144" t="s">
+      <c r="N1" s="143" t="s">
         <v>431</v>
       </c>
       <c r="O1" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="143" t="s">
+      <c r="P1" s="142" t="s">
         <v>129</v>
       </c>
       <c r="Q1" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="R1" s="143" t="s">
+      <c r="R1" s="142" t="s">
         <v>130</v>
       </c>
-      <c r="S1" s="143" t="s">
+      <c r="S1" s="142" t="s">
         <v>131</v>
       </c>
-      <c r="T1" s="143"/>
-      <c r="U1" s="143"/>
-      <c r="V1" s="143"/>
-      <c r="W1" s="143"/>
-      <c r="X1" s="143"/>
-      <c r="Y1" s="143"/>
-      <c r="Z1" s="143"/>
-      <c r="AA1" s="143"/>
-      <c r="AB1" s="143"/>
-      <c r="AC1" s="143"/>
-      <c r="AD1" s="143"/>
-      <c r="AE1" s="143"/>
-      <c r="AF1" s="143"/>
-      <c r="AG1" s="143"/>
-      <c r="AH1" s="143"/>
-      <c r="AI1" s="143"/>
-      <c r="AJ1" s="143"/>
-      <c r="AK1" s="143"/>
-      <c r="AL1" s="143"/>
-      <c r="AM1" s="143"/>
-      <c r="AN1" s="143"/>
-      <c r="AO1" s="143"/>
-      <c r="AP1" s="143"/>
-      <c r="AQ1" s="143"/>
-      <c r="AR1" s="143"/>
-      <c r="AS1" s="143"/>
-      <c r="AT1" s="143"/>
-      <c r="AU1" s="143"/>
-      <c r="AV1" s="143"/>
-      <c r="AW1" s="143"/>
-      <c r="AX1" s="143"/>
-      <c r="AY1" s="143"/>
-      <c r="AZ1" s="143"/>
-      <c r="BA1" s="143"/>
-      <c r="BB1" s="143"/>
-      <c r="BC1" s="143"/>
-      <c r="BD1" s="143"/>
-      <c r="BE1" s="143"/>
-      <c r="BF1" s="143"/>
-      <c r="BG1" s="143"/>
-      <c r="BH1" s="143"/>
-      <c r="BI1" s="143"/>
-      <c r="BJ1" s="143"/>
-      <c r="BK1" s="143"/>
-      <c r="BL1" s="143"/>
-      <c r="BM1" s="143"/>
-      <c r="BN1" s="143"/>
+      <c r="T1" s="142"/>
+      <c r="U1" s="142"/>
+      <c r="V1" s="142"/>
+      <c r="W1" s="142"/>
+      <c r="X1" s="142"/>
+      <c r="Y1" s="142"/>
+      <c r="Z1" s="142"/>
+      <c r="AA1" s="142"/>
+      <c r="AB1" s="142"/>
+      <c r="AC1" s="142"/>
+      <c r="AD1" s="142"/>
+      <c r="AE1" s="142"/>
+      <c r="AF1" s="142"/>
+      <c r="AG1" s="142"/>
+      <c r="AH1" s="142"/>
+      <c r="AI1" s="142"/>
+      <c r="AJ1" s="142"/>
+      <c r="AK1" s="142"/>
+      <c r="AL1" s="142"/>
+      <c r="AM1" s="142"/>
+      <c r="AN1" s="142"/>
+      <c r="AO1" s="142"/>
+      <c r="AP1" s="142"/>
+      <c r="AQ1" s="142"/>
+      <c r="AR1" s="142"/>
+      <c r="AS1" s="142"/>
+      <c r="AT1" s="142"/>
+      <c r="AU1" s="142"/>
+      <c r="AV1" s="142"/>
+      <c r="AW1" s="142"/>
+      <c r="AX1" s="142"/>
+      <c r="AY1" s="142"/>
+      <c r="AZ1" s="142"/>
+      <c r="BA1" s="142"/>
+      <c r="BB1" s="142"/>
+      <c r="BC1" s="142"/>
+      <c r="BD1" s="142"/>
+      <c r="BE1" s="142"/>
+      <c r="BF1" s="142"/>
+      <c r="BG1" s="142"/>
+      <c r="BH1" s="142"/>
+      <c r="BI1" s="142"/>
+      <c r="BJ1" s="142"/>
+      <c r="BK1" s="142"/>
+      <c r="BL1" s="142"/>
+      <c r="BM1" s="142"/>
+      <c r="BN1" s="142"/>
     </row>
     <row r="2" spans="1:66" s="93" customFormat="1" ht="29" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A2" s="65" t="s">
@@ -12416,8 +12497,8 @@
         <f t="shared" ref="D2:E65" si="0">UPPER(B2)</f>
         <v>ADMINISTERED_COMPONENTS</v>
       </c>
-      <c r="E2" s="135" t="s">
-        <v>1010</v>
+      <c r="E2" s="134" t="s">
+        <v>1009</v>
       </c>
       <c r="F2" s="65" t="str">
         <f>UPPER(C2)</f>
@@ -12611,8 +12692,8 @@
         <f t="shared" si="0"/>
         <v>ADMINISTERED_COMPONENTS</v>
       </c>
-      <c r="E4" s="135" t="s">
-        <v>1010</v>
+      <c r="E4" s="134" t="s">
+        <v>1009</v>
       </c>
       <c r="F4" s="65" t="str">
         <f t="shared" si="1"/>
@@ -12709,7 +12790,7 @@
         <f t="shared" si="0"/>
         <v>ADMINISTERED_COMPONENTS</v>
       </c>
-      <c r="E5" s="132" t="s">
+      <c r="E5" s="131" t="s">
         <v>536</v>
       </c>
       <c r="F5" s="65" t="str">
@@ -12797,7 +12878,7 @@
       <c r="BM5" s="12"/>
       <c r="BN5" s="12"/>
     </row>
-    <row r="6" spans="1:66" s="142" customFormat="1" ht="29" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:66" s="141" customFormat="1" ht="29" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A6" s="65" t="s">
         <v>132</v>
       </c>
@@ -12811,8 +12892,8 @@
         <f t="shared" si="0"/>
         <v>ADMINISTERED_COMPONENTS</v>
       </c>
-      <c r="E6" s="135" t="s">
-        <v>1010</v>
+      <c r="E6" s="134" t="s">
+        <v>1009</v>
       </c>
       <c r="F6" s="65" t="str">
         <f t="shared" si="1"/>
@@ -12841,57 +12922,57 @@
       <c r="Q6" s="40" t="s">
         <v>530</v>
       </c>
-      <c r="R6" s="141" t="s">
+      <c r="R6" s="140" t="s">
         <v>470</v>
       </c>
-      <c r="S6" s="141"/>
-      <c r="T6" s="141"/>
-      <c r="U6" s="141"/>
-      <c r="V6" s="141"/>
-      <c r="W6" s="141"/>
-      <c r="X6" s="141"/>
-      <c r="Y6" s="141"/>
-      <c r="Z6" s="141"/>
-      <c r="AA6" s="141"/>
-      <c r="AB6" s="141"/>
-      <c r="AC6" s="141"/>
-      <c r="AD6" s="141"/>
-      <c r="AE6" s="141"/>
-      <c r="AF6" s="141"/>
-      <c r="AG6" s="141"/>
-      <c r="AH6" s="141"/>
-      <c r="AI6" s="141"/>
-      <c r="AJ6" s="141"/>
-      <c r="AK6" s="141"/>
-      <c r="AL6" s="141"/>
-      <c r="AM6" s="141"/>
-      <c r="AN6" s="141"/>
-      <c r="AO6" s="141"/>
-      <c r="AP6" s="141"/>
-      <c r="AQ6" s="141"/>
-      <c r="AR6" s="141"/>
-      <c r="AS6" s="141"/>
-      <c r="AT6" s="141"/>
-      <c r="AU6" s="141"/>
-      <c r="AV6" s="141"/>
-      <c r="AW6" s="141"/>
-      <c r="AX6" s="141"/>
-      <c r="AY6" s="141"/>
-      <c r="AZ6" s="141"/>
-      <c r="BA6" s="141"/>
-      <c r="BB6" s="141"/>
-      <c r="BC6" s="141"/>
-      <c r="BD6" s="141"/>
-      <c r="BE6" s="141"/>
-      <c r="BF6" s="141"/>
-      <c r="BG6" s="141"/>
-      <c r="BH6" s="141"/>
-      <c r="BI6" s="141"/>
-      <c r="BJ6" s="141"/>
-      <c r="BK6" s="141"/>
-      <c r="BL6" s="141"/>
-      <c r="BM6" s="141"/>
-      <c r="BN6" s="141"/>
+      <c r="S6" s="140"/>
+      <c r="T6" s="140"/>
+      <c r="U6" s="140"/>
+      <c r="V6" s="140"/>
+      <c r="W6" s="140"/>
+      <c r="X6" s="140"/>
+      <c r="Y6" s="140"/>
+      <c r="Z6" s="140"/>
+      <c r="AA6" s="140"/>
+      <c r="AB6" s="140"/>
+      <c r="AC6" s="140"/>
+      <c r="AD6" s="140"/>
+      <c r="AE6" s="140"/>
+      <c r="AF6" s="140"/>
+      <c r="AG6" s="140"/>
+      <c r="AH6" s="140"/>
+      <c r="AI6" s="140"/>
+      <c r="AJ6" s="140"/>
+      <c r="AK6" s="140"/>
+      <c r="AL6" s="140"/>
+      <c r="AM6" s="140"/>
+      <c r="AN6" s="140"/>
+      <c r="AO6" s="140"/>
+      <c r="AP6" s="140"/>
+      <c r="AQ6" s="140"/>
+      <c r="AR6" s="140"/>
+      <c r="AS6" s="140"/>
+      <c r="AT6" s="140"/>
+      <c r="AU6" s="140"/>
+      <c r="AV6" s="140"/>
+      <c r="AW6" s="140"/>
+      <c r="AX6" s="140"/>
+      <c r="AY6" s="140"/>
+      <c r="AZ6" s="140"/>
+      <c r="BA6" s="140"/>
+      <c r="BB6" s="140"/>
+      <c r="BC6" s="140"/>
+      <c r="BD6" s="140"/>
+      <c r="BE6" s="140"/>
+      <c r="BF6" s="140"/>
+      <c r="BG6" s="140"/>
+      <c r="BH6" s="140"/>
+      <c r="BI6" s="140"/>
+      <c r="BJ6" s="140"/>
+      <c r="BK6" s="140"/>
+      <c r="BL6" s="140"/>
+      <c r="BM6" s="140"/>
+      <c r="BN6" s="140"/>
     </row>
     <row r="7" spans="1:66" s="21" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A7" s="63" t="s">
@@ -12907,7 +12988,7 @@
         <f t="shared" si="0"/>
         <v>ADMINISTERED_COMPONENTS</v>
       </c>
-      <c r="E7" s="135" t="s">
+      <c r="E7" s="134" t="s">
         <v>536</v>
       </c>
       <c r="F7" s="63" t="str">
@@ -12953,7 +13034,7 @@
         <f t="shared" si="0"/>
         <v>AC_REGISTRATIONS</v>
       </c>
-      <c r="E8" s="135" t="str">
+      <c r="E8" s="134" t="str">
         <f t="shared" si="0"/>
         <v>REGISTRAITION_STATUS</v>
       </c>
@@ -12997,7 +13078,7 @@
         <v>ADMINISTERED_COMPONENTS</v>
       </c>
       <c r="E9" s="152" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F9" s="65" t="str">
         <f t="shared" si="1"/>
@@ -13267,8 +13348,8 @@
         <f t="shared" si="0"/>
         <v>CONTEXTS</v>
       </c>
-      <c r="E12" s="135" t="s">
-        <v>1011</v>
+      <c r="E12" s="134" t="s">
+        <v>1010</v>
       </c>
       <c r="F12" s="63" t="str">
         <f t="shared" si="1"/>
@@ -13295,7 +13376,7 @@
       </c>
       <c r="P12" s="23"/>
       <c r="Q12" s="43" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="R12" s="31"/>
     </row>
@@ -13313,8 +13394,8 @@
         <f t="shared" si="0"/>
         <v>ADMINISTERED_COMPONENTS</v>
       </c>
-      <c r="E13" s="135" t="s">
-        <v>1008</v>
+      <c r="E13" s="134" t="s">
+        <v>1007</v>
       </c>
       <c r="F13" s="65" t="str">
         <f t="shared" si="1"/>
@@ -13404,7 +13485,7 @@
         <f t="shared" si="0"/>
         <v>ADMINISTERED_COMPONENTS</v>
       </c>
-      <c r="E14" s="135" t="s">
+      <c r="E14" s="134" t="s">
         <v>536</v>
       </c>
       <c r="F14" s="63" t="str">
@@ -13435,7 +13516,7 @@
       <c r="R14" s="31"/>
     </row>
     <row r="15" spans="1:66" s="89" customFormat="1" ht="14.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="135" t="s">
+      <c r="A15" s="134" t="s">
         <v>132</v>
       </c>
       <c r="B15" s="72" t="s">
@@ -13444,11 +13525,11 @@
       <c r="C15" s="72" t="s">
         <v>840</v>
       </c>
-      <c r="D15" s="135" t="s">
-        <v>1008</v>
-      </c>
-      <c r="E15" s="135" t="s">
-        <v>1008</v>
+      <c r="D15" s="134" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E15" s="134" t="s">
+        <v>1007</v>
       </c>
       <c r="F15" s="72" t="str">
         <f t="shared" si="1"/>
@@ -13473,9 +13554,9 @@
       </c>
       <c r="P15" s="72"/>
       <c r="Q15" s="44" t="s">
-        <v>995</v>
-      </c>
-      <c r="R15" s="133"/>
+        <v>994</v>
+      </c>
+      <c r="R15" s="132"/>
     </row>
     <row r="16" spans="1:66" s="102" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A16" s="65" t="s">
@@ -13492,7 +13573,7 @@
         <v>ADMINISTERED_COMPONENTS</v>
       </c>
       <c r="E16" s="152" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="F16" s="65" t="s">
         <v>949</v>
@@ -13609,7 +13690,7 @@
       </c>
       <c r="P17" s="36"/>
       <c r="Q17" s="43" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="R17" s="12"/>
       <c r="S17" s="12"/>
@@ -14207,44 +14288,44 @@
       <c r="BM23" s="12"/>
       <c r="BN23" s="12"/>
     </row>
-    <row r="24" spans="1:66" s="134" customFormat="1" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:66" s="133" customFormat="1" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="40" t="s">
         <v>758</v>
       </c>
-      <c r="B24" s="135" t="s">
+      <c r="B24" s="134" t="s">
         <v>573</v>
       </c>
-      <c r="C24" s="135" t="s">
+      <c r="C24" s="134" t="s">
         <v>571</v>
       </c>
-      <c r="D24" s="135" t="s">
-        <v>1013</v>
-      </c>
-      <c r="E24" s="138" t="s">
-        <v>1013</v>
-      </c>
-      <c r="F24" s="135" t="str">
+      <c r="D24" s="134" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E24" s="137" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F24" s="134" t="str">
         <f>UPPER(C24)</f>
         <v xml:space="preserve">DEFINITION_SOURCE </v>
       </c>
-      <c r="G24" s="135" t="s">
+      <c r="G24" s="134" t="s">
         <v>147</v>
       </c>
-      <c r="H24" s="135"/>
-      <c r="I24" s="135"/>
-      <c r="J24" s="135"/>
-      <c r="K24" s="135"/>
-      <c r="L24" s="135" t="s">
+      <c r="H24" s="134"/>
+      <c r="I24" s="134"/>
+      <c r="J24" s="134"/>
+      <c r="K24" s="134"/>
+      <c r="L24" s="134" t="s">
         <v>137</v>
       </c>
-      <c r="M24" s="135" t="s">
+      <c r="M24" s="134" t="s">
         <v>394</v>
       </c>
       <c r="N24" s="59"/>
-      <c r="O24" s="135" t="s">
+      <c r="O24" s="134" t="s">
         <v>515</v>
       </c>
-      <c r="P24" s="132"/>
+      <c r="P24" s="131"/>
       <c r="Q24" s="44" t="s">
         <v>543</v>
       </c>
@@ -14308,11 +14389,11 @@
       <c r="C25" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="135" t="s">
+      <c r="D25" s="134" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E25" s="152" t="s">
         <v>1009</v>
-      </c>
-      <c r="E25" s="152" t="s">
-        <v>1010</v>
       </c>
       <c r="F25" s="63" t="str">
         <f t="shared" si="1"/>
@@ -14395,8 +14476,8 @@
       <c r="C26" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="136" t="s">
-        <v>1009</v>
+      <c r="D26" s="135" t="s">
+        <v>1008</v>
       </c>
       <c r="E26" s="155"/>
       <c r="F26" s="63" t="str">
@@ -14480,8 +14561,8 @@
       <c r="C27" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="136" t="s">
-        <v>1009</v>
+      <c r="D27" s="135" t="s">
+        <v>1008</v>
       </c>
       <c r="E27" s="155"/>
       <c r="F27" s="63" t="str">
@@ -14565,8 +14646,8 @@
       <c r="C28" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="136" t="s">
-        <v>1009</v>
+      <c r="D28" s="135" t="s">
+        <v>1008</v>
       </c>
       <c r="E28" s="156"/>
       <c r="F28" s="63" t="str">
@@ -14655,7 +14736,7 @@
       <c r="D29" s="72" t="s">
         <v>628</v>
       </c>
-      <c r="E29" s="136" t="s">
+      <c r="E29" s="135" t="s">
         <v>536</v>
       </c>
       <c r="F29" s="63" t="str">
@@ -14746,7 +14827,7 @@
       <c r="D30" s="72" t="s">
         <v>951</v>
       </c>
-      <c r="E30" s="135" t="s">
+      <c r="E30" s="134" t="s">
         <v>951</v>
       </c>
       <c r="F30" s="63" t="str">
@@ -14924,7 +15005,7 @@
       <c r="D32" s="72" t="s">
         <v>951</v>
       </c>
-      <c r="E32" s="135" t="s">
+      <c r="E32" s="134" t="s">
         <v>951</v>
       </c>
       <c r="F32" s="63" t="str">
@@ -15011,7 +15092,7 @@
       <c r="D33" s="72" t="s">
         <v>951</v>
       </c>
-      <c r="E33" s="135" t="s">
+      <c r="E33" s="134" t="s">
         <v>536</v>
       </c>
       <c r="F33" s="63" t="str">
@@ -15102,7 +15183,7 @@
       <c r="D34" s="72" t="s">
         <v>951</v>
       </c>
-      <c r="E34" s="135" t="s">
+      <c r="E34" s="134" t="s">
         <v>951</v>
       </c>
       <c r="F34" s="63" t="str">
@@ -15280,7 +15361,7 @@
       <c r="D36" s="72" t="s">
         <v>951</v>
       </c>
-      <c r="E36" s="135" t="s">
+      <c r="E36" s="134" t="s">
         <v>951</v>
       </c>
       <c r="F36" s="63" t="str">
@@ -15367,7 +15448,7 @@
       <c r="D37" s="72" t="s">
         <v>951</v>
       </c>
-      <c r="E37" s="135" t="s">
+      <c r="E37" s="134" t="s">
         <v>536</v>
       </c>
       <c r="F37" s="63" t="str">
@@ -15479,10 +15560,10 @@
       <c r="C39" s="36" t="s">
         <v>888</v>
       </c>
-      <c r="D39" s="132" t="s">
+      <c r="D39" s="131" t="s">
         <v>691</v>
       </c>
-      <c r="E39" s="132"/>
+      <c r="E39" s="131"/>
       <c r="F39" s="98" t="str">
         <f t="shared" si="1"/>
         <v>CS_ID</v>
@@ -15570,10 +15651,10 @@
       <c r="C40" s="36" t="s">
         <v>539</v>
       </c>
-      <c r="D40" s="132" t="s">
+      <c r="D40" s="131" t="s">
         <v>691</v>
       </c>
-      <c r="E40" s="132"/>
+      <c r="E40" s="131"/>
       <c r="F40" s="98" t="str">
         <f t="shared" si="1"/>
         <v>VERSION</v>
@@ -15652,15 +15733,15 @@
       <c r="BN40" s="24"/>
     </row>
     <row r="41" spans="1:66" s="26" customFormat="1" ht="4.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="139"/>
+      <c r="A41" s="138"/>
       <c r="B41" s="18" t="s">
         <v>691</v>
       </c>
       <c r="C41" s="37"/>
-      <c r="D41" s="132" t="s">
+      <c r="D41" s="131" t="s">
         <v>691</v>
       </c>
-      <c r="E41" s="132"/>
+      <c r="E41" s="131"/>
       <c r="F41" s="65" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -15737,10 +15818,10 @@
       <c r="C42" s="103" t="s">
         <v>175</v>
       </c>
-      <c r="D42" s="132" t="s">
+      <c r="D42" s="131" t="s">
         <v>691</v>
       </c>
-      <c r="E42" s="132"/>
+      <c r="E42" s="131"/>
       <c r="F42" s="65" t="str">
         <f t="shared" si="1"/>
         <v>LABEL_TYPE_FLAG</v>
@@ -15779,7 +15860,7 @@
         <f t="shared" si="0"/>
         <v>CLASSIFICATION_SCHEMES</v>
       </c>
-      <c r="E43" s="135"/>
+      <c r="E43" s="134"/>
       <c r="F43" s="63" t="str">
         <f t="shared" si="1"/>
         <v>N/A</v>
@@ -15873,7 +15954,7 @@
         <f t="shared" si="0"/>
         <v>CLASSIFICATION_SCHEMES</v>
       </c>
-      <c r="E44" s="135"/>
+      <c r="E44" s="134"/>
       <c r="F44" s="63" t="str">
         <f t="shared" si="1"/>
         <v>CSTL_NAME</v>
@@ -15965,7 +16046,7 @@
         <f t="shared" si="0"/>
         <v>CLASSIFICATION_SCHEMES</v>
       </c>
-      <c r="E45" s="135"/>
+      <c r="E45" s="134"/>
       <c r="F45" s="63" t="str">
         <f t="shared" si="1"/>
         <v>CS_IDSEQ</v>
@@ -16057,7 +16138,7 @@
         <f t="shared" si="0"/>
         <v>CLASSIFICATION_SCHEMES</v>
       </c>
-      <c r="E46" s="135"/>
+      <c r="E46" s="134"/>
       <c r="F46" s="63" t="str">
         <f t="shared" si="1"/>
         <v>CREATED_BY</v>
@@ -16148,7 +16229,7 @@
         <f t="shared" si="0"/>
         <v>CLASSIFICATION_SCHEMES</v>
       </c>
-      <c r="E47" s="135"/>
+      <c r="E47" s="134"/>
       <c r="F47" s="63" t="str">
         <f t="shared" si="1"/>
         <v>CC_IDSEQ</v>
@@ -16238,7 +16319,7 @@
         <f t="shared" si="0"/>
         <v>CLASSIFICATION_SCHEMES</v>
       </c>
-      <c r="E48" s="135"/>
+      <c r="E48" s="134"/>
       <c r="F48" s="63" t="str">
         <f t="shared" si="1"/>
         <v>DATE_MODIFIED</v>
@@ -16330,7 +16411,7 @@
         <f t="shared" si="0"/>
         <v>CLASSIFICATION_SCHEMES</v>
       </c>
-      <c r="E49" s="135"/>
+      <c r="E49" s="134"/>
       <c r="F49" s="63" t="str">
         <f t="shared" si="1"/>
         <v>MODIFIED_BY</v>
@@ -16564,7 +16645,7 @@
         <f t="shared" si="0"/>
         <v>COMPONENT_CONCEPTS_EXT</v>
       </c>
-      <c r="E52" s="135"/>
+      <c r="E52" s="134"/>
       <c r="F52" s="63" t="str">
         <f t="shared" si="1"/>
         <v>CC_IDSEQ</v>
@@ -16603,7 +16684,7 @@
         <f t="shared" si="0"/>
         <v>COMPONENT_CONCEPTS_EXT</v>
       </c>
-      <c r="E53" s="135"/>
+      <c r="E53" s="134"/>
       <c r="F53" s="63" t="str">
         <f t="shared" si="1"/>
         <v>CONDR_IDSEQ</v>
@@ -16690,7 +16771,7 @@
         <f t="shared" si="0"/>
         <v>COMPONENT_CONCEPTS_EXT</v>
       </c>
-      <c r="E54" s="135"/>
+      <c r="E54" s="134"/>
       <c r="F54" s="63" t="str">
         <f t="shared" si="1"/>
         <v>CL_IDSEQ</v>
@@ -16727,7 +16808,7 @@
         <f t="shared" si="0"/>
         <v>CONCEPTS_EXT</v>
       </c>
-      <c r="E55" s="135"/>
+      <c r="E55" s="134"/>
       <c r="F55" s="63" t="str">
         <f t="shared" si="1"/>
         <v>CON_ID</v>
@@ -16817,7 +16898,7 @@
         <f t="shared" si="0"/>
         <v>CONCEPTS_EXT</v>
       </c>
-      <c r="E56" s="135"/>
+      <c r="E56" s="134"/>
       <c r="F56" s="63" t="str">
         <f t="shared" si="1"/>
         <v>VERSION</v>
@@ -17036,7 +17117,7 @@
         <f t="shared" si="0"/>
         <v>ADMINISTERED_COMPONENTS</v>
       </c>
-      <c r="E59" s="135"/>
+      <c r="E59" s="134"/>
       <c r="F59" s="63" t="str">
         <f t="shared" si="1"/>
         <v>PUBLIC_ID</v>
@@ -17130,7 +17211,7 @@
         <f t="shared" si="0"/>
         <v>ADMINISTERED_COMPONENTS</v>
       </c>
-      <c r="E60" s="135"/>
+      <c r="E60" s="134"/>
       <c r="F60" s="63" t="str">
         <f t="shared" si="1"/>
         <v>VERSION</v>
@@ -17736,7 +17817,7 @@
         <f t="shared" si="2"/>
         <v>CONCEPTS_EXT</v>
       </c>
-      <c r="E73" s="135"/>
+      <c r="E73" s="134"/>
       <c r="F73" s="63" t="str">
         <f t="shared" si="3"/>
         <v>N/A</v>
@@ -18198,7 +18279,7 @@
         <f t="shared" si="2"/>
         <v>CONCEPTS_EXT</v>
       </c>
-      <c r="E78" s="135"/>
+      <c r="E78" s="134"/>
       <c r="F78" s="63" t="str">
         <f t="shared" si="3"/>
         <v>N/A</v>
@@ -18290,7 +18371,7 @@
         <f t="shared" si="2"/>
         <v>CONCEPTS_EXT</v>
       </c>
-      <c r="E79" s="135"/>
+      <c r="E79" s="134"/>
       <c r="F79" s="63" t="str">
         <f t="shared" si="3"/>
         <v>CREATED_BY</v>
@@ -18382,7 +18463,7 @@
         <f t="shared" si="2"/>
         <v>CONCEPTS_EXT</v>
       </c>
-      <c r="E80" s="135"/>
+      <c r="E80" s="134"/>
       <c r="F80" s="63" t="str">
         <f t="shared" si="3"/>
         <v>DATE_CREATED</v>
@@ -18472,7 +18553,7 @@
         <f t="shared" si="2"/>
         <v>CONCEPTS_EXT</v>
       </c>
-      <c r="E81" s="135"/>
+      <c r="E81" s="134"/>
       <c r="F81" s="63" t="str">
         <f t="shared" si="3"/>
         <v>DATE_MODIFIED</v>
@@ -18562,7 +18643,7 @@
         <f t="shared" si="2"/>
         <v>CONCEPTS_EXT</v>
       </c>
-      <c r="E82" s="135"/>
+      <c r="E82" s="134"/>
       <c r="F82" s="63" t="str">
         <f t="shared" si="3"/>
         <v>MODIFIED_BY</v>
@@ -18798,7 +18879,7 @@
         <f t="shared" si="2"/>
         <v>CONCEPTUAL_DOMAINS</v>
       </c>
-      <c r="E85" s="135"/>
+      <c r="E85" s="134"/>
       <c r="F85" s="63" t="str">
         <f t="shared" si="3"/>
         <v>CD_IDSEQ</v>
@@ -18843,7 +18924,7 @@
         <f t="shared" si="2"/>
         <v>CONCEPTUAL_DOMAINS</v>
       </c>
-      <c r="E86" s="135"/>
+      <c r="E86" s="134"/>
       <c r="F86" s="63" t="str">
         <f t="shared" si="3"/>
         <v>N/A</v>
@@ -18982,7 +19063,7 @@
         <f t="shared" si="2"/>
         <v>CONCEPTUAL_DOMAINS</v>
       </c>
-      <c r="E88" s="135"/>
+      <c r="E88" s="134"/>
       <c r="F88" s="63" t="str">
         <f t="shared" si="3"/>
         <v>CD_ID</v>
@@ -19074,7 +19155,7 @@
         <f t="shared" si="2"/>
         <v>CONCEPTUAL_DOMAINS</v>
       </c>
-      <c r="E89" s="135"/>
+      <c r="E89" s="134"/>
       <c r="F89" s="63" t="str">
         <f t="shared" si="3"/>
         <v>VERSION</v>
@@ -19166,7 +19247,7 @@
         <f t="shared" si="2"/>
         <v>CONCEPTUAL_DOMAINS</v>
       </c>
-      <c r="E90" s="135"/>
+      <c r="E90" s="134"/>
       <c r="F90" s="63" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">DELETED_IND </v>
@@ -19254,7 +19335,7 @@
         <f t="shared" si="2"/>
         <v>CONCEPTUAL_DOMAINS</v>
       </c>
-      <c r="E91" s="135"/>
+      <c r="E91" s="134"/>
       <c r="F91" s="63" t="str">
         <f t="shared" si="3"/>
         <v>CREATED_BY</v>
@@ -19342,7 +19423,7 @@
         <f t="shared" si="2"/>
         <v>CONCEPTUAL_DOMAINS</v>
       </c>
-      <c r="E92" s="135"/>
+      <c r="E92" s="134"/>
       <c r="F92" s="63" t="str">
         <f t="shared" si="3"/>
         <v>DATE_CREATED</v>
@@ -19430,7 +19511,7 @@
         <f t="shared" si="2"/>
         <v>CONCEPTUAL_DOMAINS</v>
       </c>
-      <c r="E93" s="135"/>
+      <c r="E93" s="134"/>
       <c r="F93" s="63" t="str">
         <f t="shared" si="3"/>
         <v>DATE_MODIFIED</v>
@@ -19518,7 +19599,7 @@
         <f t="shared" si="2"/>
         <v>CONCEPTUAL_DOMAINS</v>
       </c>
-      <c r="E94" s="135"/>
+      <c r="E94" s="134"/>
       <c r="F94" s="63" t="str">
         <f t="shared" si="3"/>
         <v>MODIFIED_BY</v>
@@ -19752,7 +19833,7 @@
         <f t="shared" si="2"/>
         <v>CONTEXTS</v>
       </c>
-      <c r="E97" s="135"/>
+      <c r="E97" s="134"/>
       <c r="F97" s="63" t="str">
         <f t="shared" si="3"/>
         <v>N/A</v>
@@ -19974,7 +20055,7 @@
         <f t="shared" si="2"/>
         <v>CONTEXTS</v>
       </c>
-      <c r="E100" s="135"/>
+      <c r="E100" s="134"/>
       <c r="F100" s="63" t="str">
         <f t="shared" si="3"/>
         <v>N/A</v>
@@ -20205,7 +20286,7 @@
         <f t="shared" si="2"/>
         <v>CONTEXTS</v>
       </c>
-      <c r="E103" s="135"/>
+      <c r="E103" s="134"/>
       <c r="F103" s="63" t="str">
         <f t="shared" si="3"/>
         <v>N/A</v>
@@ -20349,7 +20430,7 @@
         <f t="shared" si="2"/>
         <v>CONTEXTS</v>
       </c>
-      <c r="E105" s="135"/>
+      <c r="E105" s="134"/>
       <c r="F105" s="63" t="str">
         <f t="shared" si="3"/>
         <v>N/A</v>
@@ -20531,7 +20612,7 @@
         <f t="shared" si="2"/>
         <v>CONTEXTS</v>
       </c>
-      <c r="E108" s="135"/>
+      <c r="E108" s="134"/>
       <c r="F108" s="63" t="str">
         <f t="shared" si="3"/>
         <v>CREATED_BY</v>
@@ -20625,7 +20706,7 @@
         <f t="shared" si="2"/>
         <v>CONTEXTS</v>
       </c>
-      <c r="E109" s="135"/>
+      <c r="E109" s="134"/>
       <c r="F109" s="63" t="str">
         <f t="shared" si="3"/>
         <v>DATE_CREATED</v>
@@ -20717,7 +20798,7 @@
         <f t="shared" si="2"/>
         <v>CONTEXTS</v>
       </c>
-      <c r="E110" s="135"/>
+      <c r="E110" s="134"/>
       <c r="F110" s="63" t="str">
         <f t="shared" si="3"/>
         <v>DATE_MODIFIED</v>
@@ -20807,7 +20888,7 @@
         <f t="shared" si="2"/>
         <v>CONTEXTS</v>
       </c>
-      <c r="E111" s="135"/>
+      <c r="E111" s="134"/>
       <c r="F111" s="63" t="str">
         <f t="shared" si="3"/>
         <v>MODIFIED_BY</v>
@@ -20886,7 +20967,7 @@
       <c r="BN111" s="12"/>
     </row>
     <row r="112" spans="1:66" s="29" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="140"/>
+      <c r="A112" s="139"/>
       <c r="B112" s="27" t="s">
         <v>496</v>
       </c>
@@ -20957,7 +21038,7 @@
       <c r="BN112" s="35"/>
     </row>
     <row r="113" spans="1:66" s="29" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="140"/>
+      <c r="A113" s="139"/>
       <c r="B113" s="27"/>
       <c r="D113" s="73" t="str">
         <f t="shared" si="2"/>
@@ -21039,7 +21120,7 @@
         <f t="shared" si="2"/>
         <v>DATA_ELEMENT_CONCEPTS</v>
       </c>
-      <c r="E114" s="135"/>
+      <c r="E114" s="134"/>
       <c r="F114" s="63" t="str">
         <f t="shared" si="3"/>
         <v>N/A</v>
@@ -21130,7 +21211,7 @@
         <f t="shared" si="2"/>
         <v>DATA_ELEMENT_CONCEPTS</v>
       </c>
-      <c r="E115" s="135"/>
+      <c r="E115" s="134"/>
       <c r="F115" s="63" t="str">
         <f t="shared" si="3"/>
         <v>DEC_IDSEQ</v>
@@ -21222,7 +21303,7 @@
         <f t="shared" si="2"/>
         <v>DATA_ELEMENT_CONCEPTS</v>
       </c>
-      <c r="E116" s="135"/>
+      <c r="E116" s="134"/>
       <c r="F116" s="63" t="str">
         <f t="shared" si="3"/>
         <v>DEC_ID</v>
@@ -21314,7 +21395,7 @@
         <f t="shared" si="2"/>
         <v>DATA_ELEMENT_CONCEPTS</v>
       </c>
-      <c r="E117" s="135"/>
+      <c r="E117" s="134"/>
       <c r="F117" s="63" t="str">
         <f t="shared" si="3"/>
         <v>VERSION</v>
@@ -21606,7 +21687,7 @@
         <f t="shared" si="2"/>
         <v>DATA_ELEMENT_CONCEPTS</v>
       </c>
-      <c r="E123" s="135"/>
+      <c r="E123" s="134"/>
       <c r="F123" s="63" t="str">
         <f t="shared" si="3"/>
         <v>CREATED_BY</v>
@@ -21654,7 +21735,7 @@
         <f t="shared" si="2"/>
         <v>DATA_ELEMENT_CONCEPTS</v>
       </c>
-      <c r="E124" s="135"/>
+      <c r="E124" s="134"/>
       <c r="F124" s="63" t="str">
         <f t="shared" si="3"/>
         <v>DATE_CREATED</v>
@@ -21746,7 +21827,7 @@
         <f t="shared" si="2"/>
         <v>DATA_ELEMENT_CONCEPTS</v>
       </c>
-      <c r="E125" s="135"/>
+      <c r="E125" s="134"/>
       <c r="F125" s="63" t="str">
         <f t="shared" si="3"/>
         <v>DATE_MODIFIED</v>
@@ -21836,7 +21917,7 @@
         <f t="shared" si="2"/>
         <v>DATA_ELEMENT_CONCEPTS</v>
       </c>
-      <c r="E126" s="135"/>
+      <c r="E126" s="134"/>
       <c r="F126" s="63" t="str">
         <f t="shared" si="3"/>
         <v>MODIFIED_BY</v>
@@ -21998,7 +22079,7 @@
         <f t="shared" si="2"/>
         <v>DATA_ELEMENTS</v>
       </c>
-      <c r="E128" s="135"/>
+      <c r="E128" s="134"/>
       <c r="F128" s="63" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -22083,7 +22164,7 @@
         <f t="shared" si="2"/>
         <v>DATA_ELEMENTS</v>
       </c>
-      <c r="E129" s="135"/>
+      <c r="E129" s="134"/>
       <c r="F129" s="63" t="str">
         <f t="shared" si="3"/>
         <v>DE_IDSEQ</v>
@@ -22173,7 +22254,7 @@
         <f t="shared" ref="D130:D193" si="4">UPPER(B130)</f>
         <v>DATA_ELEMENTS</v>
       </c>
-      <c r="E130" s="135"/>
+      <c r="E130" s="134"/>
       <c r="F130" s="63" t="str">
         <f t="shared" si="3"/>
         <v>CDE_ID</v>
@@ -22265,7 +22346,7 @@
         <f t="shared" si="4"/>
         <v>DATA_ELEMENTS</v>
       </c>
-      <c r="E131" s="135"/>
+      <c r="E131" s="134"/>
       <c r="F131" s="63" t="str">
         <f t="shared" ref="F131:F194" si="5">UPPER(C131)</f>
         <v>VERSION</v>
@@ -22433,7 +22514,7 @@
         <f t="shared" si="4"/>
         <v>DATA_ELEMENTS</v>
       </c>
-      <c r="E134" s="135"/>
+      <c r="E134" s="134"/>
       <c r="F134" s="63" t="str">
         <f t="shared" si="5"/>
         <v>CREATED_BY</v>
@@ -22527,7 +22608,7 @@
         <f t="shared" si="4"/>
         <v>DATA_ELEMENTS</v>
       </c>
-      <c r="E135" s="135"/>
+      <c r="E135" s="134"/>
       <c r="F135" s="63" t="str">
         <f t="shared" si="5"/>
         <v>DATE_CREATED</v>
@@ -22573,7 +22654,7 @@
         <f t="shared" si="4"/>
         <v>DATA_ELEMENTS</v>
       </c>
-      <c r="E136" s="135"/>
+      <c r="E136" s="134"/>
       <c r="F136" s="63" t="str">
         <f t="shared" si="5"/>
         <v>DATE_MODIFIED</v>
@@ -22663,7 +22744,7 @@
         <f t="shared" si="4"/>
         <v>DATA_ELEMENTS</v>
       </c>
-      <c r="E137" s="135"/>
+      <c r="E137" s="134"/>
       <c r="F137" s="63" t="str">
         <f t="shared" si="5"/>
         <v>MODIFIED_BY</v>
@@ -23027,7 +23108,7 @@
         <f t="shared" si="4"/>
         <v>COMPLEX_DATA_ELEMENTS</v>
       </c>
-      <c r="E141" s="135"/>
+      <c r="E141" s="134"/>
       <c r="F141" s="63" t="str">
         <f t="shared" si="5"/>
         <v>N/A</v>
@@ -23213,7 +23294,7 @@
         <f t="shared" si="4"/>
         <v>COMPLEX_DATA_ELEMENTS</v>
       </c>
-      <c r="E143" s="135"/>
+      <c r="E143" s="134"/>
       <c r="F143" s="63" t="str">
         <f t="shared" si="5"/>
         <v>N/A</v>
@@ -23309,7 +23390,7 @@
         <f t="shared" si="4"/>
         <v>COMPLEX_DATA_ELEMENTS</v>
       </c>
-      <c r="E144" s="135"/>
+      <c r="E144" s="134"/>
       <c r="F144" s="63" t="str">
         <f t="shared" si="5"/>
         <v>P_DE_IDSEQ</v>
@@ -23471,7 +23552,7 @@
         <f t="shared" si="4"/>
         <v>OBJECT_CLASSES_EXT</v>
       </c>
-      <c r="E146" s="135"/>
+      <c r="E146" s="134"/>
       <c r="F146" s="63" t="str">
         <f t="shared" si="5"/>
         <v>N/A</v>
@@ -23560,7 +23641,7 @@
         <f t="shared" si="4"/>
         <v>OBJECT_CLASSES_EXT</v>
       </c>
-      <c r="E147" s="135"/>
+      <c r="E147" s="134"/>
       <c r="F147" s="63" t="str">
         <f t="shared" si="5"/>
         <v>OC_IDSEQ</v>
@@ -23920,7 +24001,7 @@
         <f t="shared" si="4"/>
         <v>OBJECT_CLASSES_EXT</v>
       </c>
-      <c r="E151" s="135"/>
+      <c r="E151" s="134"/>
       <c r="F151" s="63" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">DELETED_IND </v>
@@ -24014,7 +24095,7 @@
         <f t="shared" si="4"/>
         <v>OBJECT_CLASSES_EXT</v>
       </c>
-      <c r="E152" s="135"/>
+      <c r="E152" s="134"/>
       <c r="F152" s="63" t="str">
         <f t="shared" si="5"/>
         <v>CREATED_BY</v>
@@ -24108,7 +24189,7 @@
         <f t="shared" si="4"/>
         <v>OBJECT_CLASSES_EXT</v>
       </c>
-      <c r="E153" s="135"/>
+      <c r="E153" s="134"/>
       <c r="F153" s="63" t="str">
         <f t="shared" si="5"/>
         <v>DATE_CREATED</v>
@@ -24198,7 +24279,7 @@
         <f t="shared" si="4"/>
         <v>OBJECT_CLASSES_EXT</v>
       </c>
-      <c r="E154" s="135"/>
+      <c r="E154" s="134"/>
       <c r="F154" s="63" t="str">
         <f t="shared" si="5"/>
         <v>DATE_MODIFIED</v>
@@ -24286,7 +24367,7 @@
         <f t="shared" si="4"/>
         <v>OBJECT_CLASSES_EXT</v>
       </c>
-      <c r="E155" s="135"/>
+      <c r="E155" s="134"/>
       <c r="F155" s="63" t="str">
         <f t="shared" si="5"/>
         <v>MODIFIED_BY</v>
@@ -24448,7 +24529,7 @@
         <f t="shared" si="4"/>
         <v>OC_REC_EXT</v>
       </c>
-      <c r="E157" s="135"/>
+      <c r="E157" s="134"/>
       <c r="F157" s="63" t="str">
         <f t="shared" si="5"/>
         <v>N/A</v>
@@ -24537,7 +24618,7 @@
         <f t="shared" si="4"/>
         <v>OC_REC_EXT</v>
       </c>
-      <c r="E158" s="135"/>
+      <c r="E158" s="134"/>
       <c r="F158" s="63" t="str">
         <f t="shared" si="5"/>
         <v>OCR_IDSEQ</v>
@@ -24805,7 +24886,7 @@
         <f t="shared" si="4"/>
         <v>OC_REC_EXT</v>
       </c>
-      <c r="E161" s="135"/>
+      <c r="E161" s="134"/>
       <c r="F161" s="63" t="str">
         <f t="shared" si="5"/>
         <v>S_OC_IDSEQ</v>
@@ -24895,7 +24976,7 @@
         <f t="shared" si="4"/>
         <v>OC_REC_EXT</v>
       </c>
-      <c r="E162" s="135"/>
+      <c r="E162" s="134"/>
       <c r="F162" s="63" t="str">
         <f t="shared" si="5"/>
         <v>N/A</v>
@@ -24985,7 +25066,7 @@
         <f t="shared" si="4"/>
         <v>OC_REC_EXT</v>
       </c>
-      <c r="E163" s="135"/>
+      <c r="E163" s="134"/>
       <c r="F163" s="63" t="str">
         <f t="shared" si="5"/>
         <v>N/A</v>
@@ -25075,7 +25156,7 @@
         <f t="shared" si="4"/>
         <v>OC_REC_EXT</v>
       </c>
-      <c r="E164" s="135"/>
+      <c r="E164" s="134"/>
       <c r="F164" s="63" t="str">
         <f t="shared" si="5"/>
         <v>T_OC_IDSEQ</v>
@@ -25167,7 +25248,7 @@
         <f t="shared" si="4"/>
         <v>OC_REC_EXT</v>
       </c>
-      <c r="E165" s="135"/>
+      <c r="E165" s="134"/>
       <c r="F165" s="63" t="str">
         <f t="shared" si="5"/>
         <v>N/A</v>
@@ -25257,7 +25338,7 @@
         <f t="shared" si="4"/>
         <v>OC_REC_EXT</v>
       </c>
-      <c r="E166" s="135"/>
+      <c r="E166" s="134"/>
       <c r="F166" s="63" t="str">
         <f t="shared" si="5"/>
         <v>N/A</v>
@@ -25384,7 +25465,7 @@
         <f t="shared" si="4"/>
         <v>OC_REC_EXT</v>
       </c>
-      <c r="E168" s="135"/>
+      <c r="E168" s="134"/>
       <c r="F168" s="63" t="str">
         <f t="shared" si="5"/>
         <v>CONDR_IDSEQ</v>
@@ -26035,7 +26116,7 @@
         <f t="shared" si="4"/>
         <v>OC_REC_EXT</v>
       </c>
-      <c r="E183" s="135"/>
+      <c r="E183" s="134"/>
       <c r="F183" s="63" t="str">
         <f t="shared" si="5"/>
         <v>DELETED_IND</v>
@@ -26080,7 +26161,7 @@
         <f t="shared" si="4"/>
         <v>OC_REC_EXT</v>
       </c>
-      <c r="E184" s="135"/>
+      <c r="E184" s="134"/>
       <c r="F184" s="63" t="str">
         <f t="shared" si="5"/>
         <v>CREATED_BY</v>
@@ -26174,7 +26255,7 @@
         <f t="shared" si="4"/>
         <v>OC_REC_EXT</v>
       </c>
-      <c r="E185" s="135"/>
+      <c r="E185" s="134"/>
       <c r="F185" s="63" t="str">
         <f t="shared" si="5"/>
         <v>DATE_CREATED</v>
@@ -26266,7 +26347,7 @@
         <f t="shared" si="4"/>
         <v>OC_REC_EXT</v>
       </c>
-      <c r="E186" s="135"/>
+      <c r="E186" s="134"/>
       <c r="F186" s="63" t="str">
         <f t="shared" si="5"/>
         <v>DATE_MODIFIED</v>
@@ -26356,7 +26437,7 @@
         <f t="shared" si="4"/>
         <v>OC_REC_EXT</v>
       </c>
-      <c r="E187" s="135"/>
+      <c r="E187" s="134"/>
       <c r="F187" s="63" t="str">
         <f t="shared" si="5"/>
         <v>MODIFIED_BY</v>
@@ -26520,7 +26601,7 @@
         <f t="shared" si="4"/>
         <v>PROPERTIES_EXT</v>
       </c>
-      <c r="E189" s="135"/>
+      <c r="E189" s="134"/>
       <c r="F189" s="63" t="str">
         <f t="shared" si="5"/>
         <v>N/A</v>
@@ -26743,7 +26824,7 @@
         <f t="shared" si="4"/>
         <v>PROPERTIES_EXT</v>
       </c>
-      <c r="E192" s="135"/>
+      <c r="E192" s="134"/>
       <c r="F192" s="63" t="str">
         <f t="shared" si="5"/>
         <v>PROP_ID</v>
@@ -26835,7 +26916,7 @@
         <f t="shared" si="4"/>
         <v>PROPERTIES_EXT</v>
       </c>
-      <c r="E193" s="135"/>
+      <c r="E193" s="134"/>
       <c r="F193" s="63" t="str">
         <f t="shared" si="5"/>
         <v>VERSION</v>
@@ -26927,7 +27008,7 @@
         <f t="shared" ref="D194:D256" si="6">UPPER(B194)</f>
         <v>PROPERTIES_EXT</v>
       </c>
-      <c r="E194" s="135"/>
+      <c r="E194" s="134"/>
       <c r="F194" s="63" t="str">
         <f t="shared" si="5"/>
         <v>CONDR_IDSEQ</v>
@@ -27021,7 +27102,7 @@
         <f t="shared" si="6"/>
         <v>PROPERTIES_EXT</v>
       </c>
-      <c r="E195" s="135"/>
+      <c r="E195" s="134"/>
       <c r="F195" s="63" t="str">
         <f t="shared" ref="F195:F256" si="7">UPPER(C195)</f>
         <v>DELETED_IND</v>
@@ -27113,7 +27194,7 @@
         <f t="shared" si="6"/>
         <v>PROPERTIES_EXT</v>
       </c>
-      <c r="E196" s="135"/>
+      <c r="E196" s="134"/>
       <c r="F196" s="63" t="str">
         <f t="shared" si="7"/>
         <v>CREATED_BY</v>
@@ -27207,7 +27288,7 @@
         <f t="shared" si="6"/>
         <v>PROPERTIES_EXT</v>
       </c>
-      <c r="E197" s="135"/>
+      <c r="E197" s="134"/>
       <c r="F197" s="63" t="str">
         <f t="shared" si="7"/>
         <v>DATE_CREATED</v>
@@ -27299,7 +27380,7 @@
         <f t="shared" si="6"/>
         <v>PROPERTIES_EXT</v>
       </c>
-      <c r="E198" s="135"/>
+      <c r="E198" s="134"/>
       <c r="F198" s="63" t="str">
         <f t="shared" si="7"/>
         <v>DATE_MODIFIED</v>
@@ -27389,7 +27470,7 @@
         <f t="shared" si="6"/>
         <v>PROPERTIES_EXT</v>
       </c>
-      <c r="E199" s="135"/>
+      <c r="E199" s="134"/>
       <c r="F199" s="63" t="str">
         <f t="shared" si="7"/>
         <v>MODIFIED_BY</v>
@@ -27554,7 +27635,7 @@
         <f t="shared" si="6"/>
         <v>REPRESENTATIONS_EXT</v>
       </c>
-      <c r="E201" s="135"/>
+      <c r="E201" s="134"/>
       <c r="F201" s="63" t="str">
         <f t="shared" si="7"/>
         <v>N/A</v>
@@ -27680,7 +27761,7 @@
         <f t="shared" si="6"/>
         <v>REPRESENTATIONS_EXT</v>
       </c>
-      <c r="E203" s="135"/>
+      <c r="E203" s="134"/>
       <c r="F203" s="63" t="str">
         <f t="shared" si="7"/>
         <v>REF_IDSEQ</v>
@@ -27774,7 +27855,7 @@
         <f t="shared" si="6"/>
         <v>REPRESENTATIONS_EXT</v>
       </c>
-      <c r="E204" s="135"/>
+      <c r="E204" s="134"/>
       <c r="F204" s="63" t="str">
         <f t="shared" si="7"/>
         <v>REF_ID</v>
@@ -27866,7 +27947,7 @@
         <f t="shared" si="6"/>
         <v>REPRESENTATIONS_EXT</v>
       </c>
-      <c r="E205" s="135"/>
+      <c r="E205" s="134"/>
       <c r="F205" s="63" t="str">
         <f t="shared" si="7"/>
         <v>VERSION</v>
@@ -27958,7 +28039,7 @@
         <f t="shared" si="6"/>
         <v>REPRESENTATIONS_EXT</v>
       </c>
-      <c r="E206" s="135"/>
+      <c r="E206" s="134"/>
       <c r="F206" s="63" t="str">
         <f t="shared" si="7"/>
         <v>CONDR_IDSEQ</v>
@@ -28052,7 +28133,7 @@
         <f t="shared" si="6"/>
         <v>REPRESENTATIONS_EXT</v>
       </c>
-      <c r="E207" s="135"/>
+      <c r="E207" s="134"/>
       <c r="F207" s="63" t="str">
         <f t="shared" si="7"/>
         <v>DELETED_IND</v>
@@ -28144,7 +28225,7 @@
         <f t="shared" si="6"/>
         <v>REPRESENTATIONS_EXT</v>
       </c>
-      <c r="E208" s="135"/>
+      <c r="E208" s="134"/>
       <c r="F208" s="63" t="str">
         <f t="shared" si="7"/>
         <v>CREATED_BY</v>
@@ -28238,7 +28319,7 @@
         <f t="shared" si="6"/>
         <v>REPRESENTATIONS_EXT</v>
       </c>
-      <c r="E209" s="135"/>
+      <c r="E209" s="134"/>
       <c r="F209" s="63" t="str">
         <f t="shared" si="7"/>
         <v>DATE_CREATED</v>
@@ -28330,7 +28411,7 @@
         <f t="shared" si="6"/>
         <v>REPRESENTATIONS_EXT</v>
       </c>
-      <c r="E210" s="135"/>
+      <c r="E210" s="134"/>
       <c r="F210" s="63" t="str">
         <f t="shared" si="7"/>
         <v>DATE_MODIFIED</v>
@@ -28420,7 +28501,7 @@
         <f t="shared" si="6"/>
         <v>REPRESENTATIONS_EXT</v>
       </c>
-      <c r="E211" s="135"/>
+      <c r="E211" s="134"/>
       <c r="F211" s="63" t="str">
         <f t="shared" si="7"/>
         <v>MODIFIED_BY</v>
@@ -28532,7 +28613,7 @@
         <f t="shared" si="6"/>
         <v>VALUE_DOMAINS</v>
       </c>
-      <c r="E213" s="135"/>
+      <c r="E213" s="134"/>
       <c r="F213" s="63" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -28619,7 +28700,7 @@
         <f t="shared" si="6"/>
         <v>VALUE_DOMAINS</v>
       </c>
-      <c r="E214" s="135"/>
+      <c r="E214" s="134"/>
       <c r="F214" s="63" t="str">
         <f t="shared" si="7"/>
         <v>VD_IDSEQ</v>
@@ -28713,7 +28794,7 @@
         <f t="shared" si="6"/>
         <v>VALUE_DOMAINS</v>
       </c>
-      <c r="E215" s="135"/>
+      <c r="E215" s="134"/>
       <c r="F215" s="63" t="str">
         <f t="shared" si="7"/>
         <v>VD_ID</v>
@@ -28803,7 +28884,7 @@
         <f t="shared" si="6"/>
         <v>VALUE_DOMAINS</v>
       </c>
-      <c r="E216" s="135"/>
+      <c r="E216" s="134"/>
       <c r="F216" s="63" t="str">
         <f t="shared" si="7"/>
         <v>VERSION</v>
@@ -30207,7 +30288,7 @@
         <f t="shared" si="6"/>
         <v>VALUE_DOMAINS</v>
       </c>
-      <c r="E231" s="135"/>
+      <c r="E231" s="134"/>
       <c r="F231" s="63" t="str">
         <f t="shared" si="7"/>
         <v>DELETED_IND</v>
@@ -30299,7 +30380,7 @@
         <f t="shared" si="6"/>
         <v>VALUE_DOMAINS</v>
       </c>
-      <c r="E232" s="135"/>
+      <c r="E232" s="134"/>
       <c r="F232" s="63" t="str">
         <f t="shared" si="7"/>
         <v>CREATED_BY</v>
@@ -30393,7 +30474,7 @@
         <f t="shared" si="6"/>
         <v>VALUE_DOMAINS</v>
       </c>
-      <c r="E233" s="135"/>
+      <c r="E233" s="134"/>
       <c r="F233" s="63" t="str">
         <f t="shared" si="7"/>
         <v>DATE_CREATED</v>
@@ -30485,7 +30566,7 @@
         <f t="shared" si="6"/>
         <v>VALUE_DOMAINS</v>
       </c>
-      <c r="E234" s="135"/>
+      <c r="E234" s="134"/>
       <c r="F234" s="63" t="str">
         <f t="shared" si="7"/>
         <v>DATE_MODIFIED</v>
@@ -30575,7 +30656,7 @@
         <f t="shared" si="6"/>
         <v>VALUE_DOMAINS</v>
       </c>
-      <c r="E235" s="135"/>
+      <c r="E235" s="134"/>
       <c r="F235" s="63" t="str">
         <f t="shared" si="7"/>
         <v>MODIFIED_BY</v>
@@ -30933,7 +31014,7 @@
         <f t="shared" si="6"/>
         <v>DATA_ELEMENTS</v>
       </c>
-      <c r="E240" s="135"/>
+      <c r="E240" s="134"/>
       <c r="F240" s="63" t="str">
         <f t="shared" si="7"/>
         <v>CDE_ID FOR P_DE_IDSEQ</v>
@@ -31023,7 +31104,7 @@
         <f t="shared" si="6"/>
         <v>DATA_ELEMENTS</v>
       </c>
-      <c r="E241" s="135"/>
+      <c r="E241" s="134"/>
       <c r="F241" s="63" t="str">
         <f t="shared" si="7"/>
         <v>VERSION FOR P_DE_IDSEQ</v>
@@ -31153,7 +31234,7 @@
         <f t="shared" si="6"/>
         <v>DATA_ELEMENTS</v>
       </c>
-      <c r="E243" s="135"/>
+      <c r="E243" s="134"/>
       <c r="F243" s="63" t="str">
         <f t="shared" si="7"/>
         <v>CDE_ID FOR C_DE_IDSEQ</v>
@@ -31243,7 +31324,7 @@
         <f t="shared" si="6"/>
         <v>DATA_ELEMENTS</v>
       </c>
-      <c r="E244" s="135"/>
+      <c r="E244" s="134"/>
       <c r="F244" s="63" t="str">
         <f t="shared" si="7"/>
         <v>VERSION FOR C_DE_IDSEQ</v>
@@ -31423,7 +31504,7 @@
         <f t="shared" si="6"/>
         <v>COMPLEX_DE_RELATIONSHIPS</v>
       </c>
-      <c r="E246" s="135"/>
+      <c r="E246" s="134"/>
       <c r="F246" s="63" t="str">
         <f t="shared" si="7"/>
         <v>N/A</v>
@@ -31464,7 +31545,7 @@
         <f t="shared" si="6"/>
         <v>COMPLEX_DE_RELATIONSHIPS</v>
       </c>
-      <c r="E247" s="135"/>
+      <c r="E247" s="134"/>
       <c r="F247" s="63" t="str">
         <f t="shared" si="7"/>
         <v>LEFT_STRING</v>
@@ -31499,7 +31580,7 @@
         <f t="shared" si="6"/>
         <v>COMPLEX_DE_RELATIONSHIPS</v>
       </c>
-      <c r="E248" s="135"/>
+      <c r="E248" s="134"/>
       <c r="F248" s="63" t="str">
         <f t="shared" si="7"/>
         <v>RIGHT_STRING</v>
@@ -31534,7 +31615,7 @@
         <f t="shared" si="6"/>
         <v>COMPLEX_DE_RELATIONSHIPS</v>
       </c>
-      <c r="E249" s="135"/>
+      <c r="E249" s="134"/>
       <c r="F249" s="63" t="str">
         <f t="shared" si="7"/>
         <v>RF_IDSEQ</v>
@@ -31571,7 +31652,7 @@
         <f t="shared" si="6"/>
         <v>COMPLEX_DE_RELATIONSHIPS</v>
       </c>
-      <c r="E250" s="135"/>
+      <c r="E250" s="134"/>
       <c r="F250" s="63" t="str">
         <f t="shared" si="7"/>
         <v>CREATED_BY</v>
@@ -31616,7 +31697,7 @@
         <f t="shared" si="6"/>
         <v>COMPLEX_DE_RELATIONSHIPS</v>
       </c>
-      <c r="E251" s="135"/>
+      <c r="E251" s="134"/>
       <c r="F251" s="63" t="str">
         <f t="shared" si="7"/>
         <v>DATE_CREATED</v>
@@ -31659,7 +31740,7 @@
         <f t="shared" si="6"/>
         <v>COMPLEX_DE_RELATIONSHIPS</v>
       </c>
-      <c r="E252" s="135"/>
+      <c r="E252" s="134"/>
       <c r="F252" s="63" t="str">
         <f t="shared" si="7"/>
         <v>DATE_MODIFIED</v>
@@ -31699,7 +31780,7 @@
         <f t="shared" si="6"/>
         <v>COMPLEX_DE_RELATIONSHIPS</v>
       </c>
-      <c r="E253" s="135"/>
+      <c r="E253" s="134"/>
       <c r="F253" s="63" t="str">
         <f t="shared" si="7"/>
         <v>MODIFIED_BY</v>
@@ -31741,7 +31822,7 @@
         <f t="shared" si="6"/>
         <v>COMPLEX_DE_RELATIONSHIPS</v>
       </c>
-      <c r="E254" s="135"/>
+      <c r="E254" s="134"/>
       <c r="F254" s="63" t="str">
         <f t="shared" si="7"/>
         <v>N/A</v>
@@ -31782,7 +31863,7 @@
         <f t="shared" si="6"/>
         <v>COMPLEX_DE_RELATIONSHIPS</v>
       </c>
-      <c r="E255" s="135"/>
+      <c r="E255" s="134"/>
       <c r="F255" s="63" t="str">
         <f t="shared" si="7"/>
         <v>N/A</v>
@@ -31823,7 +31904,7 @@
         <f t="shared" si="6"/>
         <v>COMPLEX_DE_RELATIONSHIPS</v>
       </c>
-      <c r="E256" s="135"/>
+      <c r="E256" s="134"/>
       <c r="F256" s="63" t="str">
         <f t="shared" si="7"/>
         <v>N/A</v>
@@ -31880,7 +31961,7 @@
       <c r="A262" s="98"/>
       <c r="C262" s="36"/>
       <c r="D262" s="88"/>
-      <c r="E262" s="132"/>
+      <c r="E262" s="131"/>
       <c r="F262" s="98"/>
       <c r="G262" s="36"/>
       <c r="H262" s="36"/>
@@ -31895,7 +31976,7 @@
       <c r="A263" s="98"/>
       <c r="C263" s="36"/>
       <c r="D263" s="88"/>
-      <c r="E263" s="132"/>
+      <c r="E263" s="131"/>
       <c r="F263" s="98"/>
       <c r="G263" s="36"/>
       <c r="H263" s="36"/>
@@ -31910,7 +31991,7 @@
       <c r="A264" s="98"/>
       <c r="C264" s="36"/>
       <c r="D264" s="88"/>
-      <c r="E264" s="132"/>
+      <c r="E264" s="131"/>
       <c r="F264" s="98"/>
       <c r="G264" s="36"/>
       <c r="H264" s="36"/>
@@ -31925,7 +32006,7 @@
       <c r="A265" s="98"/>
       <c r="C265" s="36"/>
       <c r="D265" s="88"/>
-      <c r="E265" s="132"/>
+      <c r="E265" s="131"/>
       <c r="F265" s="98"/>
       <c r="G265" s="36"/>
       <c r="H265" s="36"/>
@@ -31940,7 +32021,7 @@
       <c r="A266" s="98"/>
       <c r="C266" s="36"/>
       <c r="D266" s="88"/>
-      <c r="E266" s="132"/>
+      <c r="E266" s="131"/>
       <c r="F266" s="98"/>
       <c r="G266" s="36"/>
       <c r="H266" s="36"/>
@@ -31955,7 +32036,7 @@
       <c r="A267" s="98"/>
       <c r="C267" s="36"/>
       <c r="D267" s="88"/>
-      <c r="E267" s="132"/>
+      <c r="E267" s="131"/>
       <c r="F267" s="98"/>
       <c r="G267" s="36"/>
       <c r="H267" s="36"/>
@@ -31970,7 +32051,7 @@
       <c r="A268" s="98"/>
       <c r="C268" s="36"/>
       <c r="D268" s="88"/>
-      <c r="E268" s="132"/>
+      <c r="E268" s="131"/>
       <c r="F268" s="98"/>
       <c r="G268" s="36"/>
       <c r="H268" s="36"/>
@@ -31985,7 +32066,7 @@
       <c r="A269" s="98"/>
       <c r="C269" s="36"/>
       <c r="D269" s="88"/>
-      <c r="E269" s="132"/>
+      <c r="E269" s="131"/>
       <c r="F269" s="98"/>
       <c r="G269" s="36"/>
       <c r="H269" s="36"/>
@@ -32000,7 +32081,7 @@
       <c r="A270" s="98"/>
       <c r="C270" s="36"/>
       <c r="D270" s="88"/>
-      <c r="E270" s="132"/>
+      <c r="E270" s="131"/>
       <c r="F270" s="98"/>
       <c r="G270" s="36"/>
       <c r="H270" s="36"/>
@@ -32015,7 +32096,7 @@
       <c r="A271" s="98"/>
       <c r="C271" s="36"/>
       <c r="D271" s="88"/>
-      <c r="E271" s="132"/>
+      <c r="E271" s="131"/>
       <c r="F271" s="98"/>
       <c r="G271" s="36"/>
       <c r="H271" s="36"/>
@@ -32030,7 +32111,7 @@
       <c r="A272" s="98"/>
       <c r="C272" s="36"/>
       <c r="D272" s="88"/>
-      <c r="E272" s="132"/>
+      <c r="E272" s="131"/>
       <c r="F272" s="98"/>
       <c r="G272" s="36"/>
       <c r="H272" s="36"/>
@@ -32045,7 +32126,7 @@
       <c r="A273" s="98"/>
       <c r="C273" s="36"/>
       <c r="D273" s="88"/>
-      <c r="E273" s="132"/>
+      <c r="E273" s="131"/>
       <c r="F273" s="98"/>
       <c r="G273" s="36"/>
       <c r="H273" s="36"/>
@@ -32060,7 +32141,7 @@
       <c r="A274" s="98"/>
       <c r="C274" s="36"/>
       <c r="D274" s="88"/>
-      <c r="E274" s="132"/>
+      <c r="E274" s="131"/>
       <c r="F274" s="98"/>
       <c r="G274" s="36"/>
       <c r="H274" s="36"/>
@@ -32075,7 +32156,7 @@
       <c r="A275" s="98"/>
       <c r="C275" s="36"/>
       <c r="D275" s="88"/>
-      <c r="E275" s="132"/>
+      <c r="E275" s="131"/>
       <c r="F275" s="98"/>
       <c r="G275" s="36"/>
       <c r="H275" s="36"/>
@@ -32090,7 +32171,7 @@
       <c r="A276" s="98"/>
       <c r="C276" s="36"/>
       <c r="D276" s="88"/>
-      <c r="E276" s="132"/>
+      <c r="E276" s="131"/>
       <c r="F276" s="98"/>
       <c r="G276" s="36"/>
       <c r="H276" s="36"/>
@@ -35274,10 +35355,10 @@
         <v>536</v>
       </c>
       <c r="G62" s="101" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="H62" s="101" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I62" s="10" t="s">
         <v>848</v>
@@ -36214,7 +36295,7 @@
   <dimension ref="A1:N89"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
@@ -36440,7 +36521,7 @@
         <v>155</v>
       </c>
       <c r="M7" s="23" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
@@ -36469,7 +36550,7 @@
         <v>148</v>
       </c>
       <c r="M8" s="23" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
@@ -39014,7 +39095,7 @@
         <v>170</v>
       </c>
       <c r="O5" s="36"/>
-      <c r="P5" s="132"/>
+      <c r="P5" s="131"/>
       <c r="Q5" s="36"/>
       <c r="R5" s="36"/>
       <c r="S5" s="36"/>
@@ -39180,7 +39261,7 @@
       </c>
       <c r="O10" s="12"/>
       <c r="P10" s="71" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="Q10" s="12"/>
       <c r="R10" s="12"/>
@@ -39763,7 +39844,7 @@
       </c>
       <c r="O29" s="12"/>
       <c r="P29" s="58" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="Q29" s="12"/>
       <c r="R29" s="12"/>
@@ -39831,7 +39912,7 @@
         <v>426</v>
       </c>
       <c r="L31" s="67" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="M31" s="69" t="s">
         <v>461</v>
@@ -41221,36 +41302,36 @@
       <c r="S73" s="12"/>
       <c r="T73" s="12"/>
     </row>
-    <row r="74" spans="1:20" s="130" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:20" s="129" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B74" s="73" t="s">
         <v>283</v>
       </c>
       <c r="C74" s="55" t="s">
         <v>754</v>
       </c>
-      <c r="D74" s="130" t="s">
+      <c r="D74" s="129" t="s">
         <v>782</v>
       </c>
-      <c r="E74" s="131" t="s">
+      <c r="E74" s="130" t="s">
         <v>94</v>
       </c>
-      <c r="K74" s="130" t="s">
+      <c r="K74" s="129" t="s">
         <v>297</v>
       </c>
-      <c r="L74" s="130" t="s">
+      <c r="L74" s="129" t="s">
         <v>409</v>
       </c>
       <c r="M74" s="59" t="s">
         <v>464</v>
       </c>
-      <c r="N74" s="131" t="s">
+      <c r="N74" s="130" t="s">
         <v>735</v>
       </c>
       <c r="O74" s="60"/>
-      <c r="P74" s="129" t="s">
+      <c r="P74" s="128" t="s">
         <v>786</v>
       </c>
-      <c r="Q74" s="129" t="s">
+      <c r="Q74" s="128" t="s">
         <v>787</v>
       </c>
       <c r="R74" s="60"/>
@@ -41519,7 +41600,7 @@
       <c r="M82" s="74"/>
       <c r="N82" s="74"/>
       <c r="O82" s="33"/>
-      <c r="P82" s="137"/>
+      <c r="P82" s="136"/>
       <c r="Q82" s="33"/>
       <c r="R82" s="33"/>
       <c r="S82" s="33"/>
@@ -43664,8 +43745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{386CEFB1-01C1-4204-8D32-61CA86766930}">
   <dimension ref="A1:L82"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="J82" sqref="J82"/>
+    <sheetView topLeftCell="C51" workbookViewId="0">
+      <selection activeCell="L55" sqref="L55:L71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -43752,7 +43833,7 @@
         <v>848</v>
       </c>
       <c r="L2" s="159" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -44128,7 +44209,7 @@
         <v>848</v>
       </c>
       <c r="L15" s="159" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
@@ -45035,7 +45116,7 @@
         <v>135</v>
       </c>
       <c r="K46" s="102" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="L46" s="25" t="s">
         <v>976</v>
@@ -45073,7 +45154,7 @@
         <v>135</v>
       </c>
       <c r="K47" s="102" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
@@ -45108,7 +45189,7 @@
         <v>135</v>
       </c>
       <c r="K48" s="102" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.35">
@@ -45143,7 +45224,7 @@
         <v>135</v>
       </c>
       <c r="K49" s="102" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
@@ -45175,7 +45256,7 @@
         <v>66</v>
       </c>
       <c r="K50" s="102" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
@@ -45210,7 +45291,7 @@
         <v>135</v>
       </c>
       <c r="K51" s="102" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
@@ -45239,7 +45320,7 @@
         <v>66</v>
       </c>
       <c r="K52" s="102" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
@@ -45299,11 +45380,11 @@
       <c r="I55" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="K55" s="126" t="s">
+      <c r="K55" s="90" t="s">
         <v>848</v>
       </c>
       <c r="L55" s="159" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
@@ -45331,7 +45412,7 @@
       <c r="I56" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="K56" s="126" t="s">
+      <c r="K56" s="90" t="s">
         <v>848</v>
       </c>
       <c r="L56" s="159"/>
@@ -45367,7 +45448,7 @@
       <c r="J57" s="102" t="s">
         <v>135</v>
       </c>
-      <c r="K57" s="126" t="s">
+      <c r="K57" s="90" t="s">
         <v>848</v>
       </c>
       <c r="L57" s="159"/>
@@ -45403,7 +45484,7 @@
       <c r="J58" s="102" t="s">
         <v>135</v>
       </c>
-      <c r="K58" s="126" t="s">
+      <c r="K58" s="90" t="s">
         <v>848</v>
       </c>
       <c r="L58" s="159"/>
@@ -45439,7 +45520,7 @@
       <c r="J59" s="102" t="s">
         <v>135</v>
       </c>
-      <c r="K59" s="126" t="s">
+      <c r="K59" s="90" t="s">
         <v>848</v>
       </c>
       <c r="L59" s="159"/>
@@ -45472,7 +45553,7 @@
       <c r="I60" s="102" t="s">
         <v>506</v>
       </c>
-      <c r="K60" s="126" t="s">
+      <c r="K60" s="90" t="s">
         <v>848</v>
       </c>
       <c r="L60" s="159"/>
@@ -45508,7 +45589,7 @@
       <c r="J61" s="102" t="s">
         <v>135</v>
       </c>
-      <c r="K61" s="126" t="s">
+      <c r="K61" s="90" t="s">
         <v>848</v>
       </c>
       <c r="L61" s="159"/>
@@ -45544,7 +45625,7 @@
       <c r="J62" s="102" t="s">
         <v>135</v>
       </c>
-      <c r="K62" s="126" t="s">
+      <c r="K62" s="90" t="s">
         <v>848</v>
       </c>
       <c r="L62" s="159"/>
@@ -45580,7 +45661,7 @@
       <c r="J63" s="102" t="s">
         <v>545</v>
       </c>
-      <c r="K63" s="126" t="s">
+      <c r="K63" s="90" t="s">
         <v>848</v>
       </c>
       <c r="L63" s="159"/>
@@ -45613,7 +45694,7 @@
       <c r="I64" s="102" t="s">
         <v>59</v>
       </c>
-      <c r="K64" s="126" t="s">
+      <c r="K64" s="90" t="s">
         <v>848</v>
       </c>
       <c r="L64" s="159"/>
@@ -45646,7 +45727,7 @@
       <c r="I65" s="102" t="s">
         <v>76</v>
       </c>
-      <c r="K65" s="126" t="s">
+      <c r="K65" s="90" t="s">
         <v>848</v>
       </c>
       <c r="L65" s="159"/>
@@ -45679,7 +45760,7 @@
       <c r="I66" s="102" t="s">
         <v>53</v>
       </c>
-      <c r="K66" s="126" t="s">
+      <c r="K66" s="90" t="s">
         <v>848</v>
       </c>
       <c r="L66" s="159"/>
@@ -45712,7 +45793,7 @@
       <c r="J67" s="102" t="s">
         <v>545</v>
       </c>
-      <c r="K67" s="126" t="s">
+      <c r="K67" s="90" t="s">
         <v>848</v>
       </c>
       <c r="L67" s="159"/>
@@ -45742,7 +45823,7 @@
       <c r="I68" s="102" t="s">
         <v>53</v>
       </c>
-      <c r="K68" s="126" t="s">
+      <c r="K68" s="90" t="s">
         <v>848</v>
       </c>
       <c r="L68" s="159"/>
@@ -45775,7 +45856,7 @@
       <c r="I69" s="102" t="s">
         <v>66</v>
       </c>
-      <c r="K69" s="126" t="s">
+      <c r="K69" s="90" t="s">
         <v>848</v>
       </c>
       <c r="L69" s="159"/>
@@ -45808,7 +45889,7 @@
       <c r="J70" s="102" t="s">
         <v>545</v>
       </c>
-      <c r="K70" s="126" t="s">
+      <c r="K70" s="90" t="s">
         <v>848</v>
       </c>
       <c r="L70" s="159"/>
@@ -45838,7 +45919,7 @@
       <c r="I71" s="102" t="s">
         <v>66</v>
       </c>
-      <c r="K71" s="126" t="s">
+      <c r="K71" s="90" t="s">
         <v>848</v>
       </c>
       <c r="L71" s="159"/>
@@ -45878,7 +45959,7 @@
         <v>939</v>
       </c>
       <c r="L73" s="159" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.35">
@@ -49576,7 +49657,7 @@
         <v>161</v>
       </c>
       <c r="F104" s="12" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="G104" s="12" t="s">
         <v>576</v>
@@ -51330,7 +51411,7 @@
         <v>ADMINISTERED_COMPONENTS/ SOURSES_EXT</v>
       </c>
       <c r="B161" s="98" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C161" s="12" t="str">
         <f t="shared" si="5"/>
@@ -51457,26 +51538,26 @@
 REPRESENTATIONS_EXT,
 CONCEPTS_EXT</v>
       </c>
-      <c r="B165" s="132" t="s">
+      <c r="B165" s="131" t="s">
         <v>573</v>
       </c>
       <c r="C165" s="12" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">DEFINITION_SOURCE </v>
       </c>
-      <c r="D165" s="132" t="s">
+      <c r="D165" s="131" t="s">
         <v>571</v>
       </c>
-      <c r="E165" s="132" t="s">
+      <c r="E165" s="131" t="s">
         <v>147</v>
       </c>
-      <c r="F165" s="132" t="s">
+      <c r="F165" s="131" t="s">
         <v>137</v>
       </c>
-      <c r="G165" s="132" t="s">
+      <c r="G165" s="131" t="s">
         <v>394</v>
       </c>
-      <c r="H165" s="132" t="s">
+      <c r="H165" s="131" t="s">
         <v>515</v>
       </c>
       <c r="I165" s="47" t="s">
@@ -51488,7 +51569,7 @@
         <f t="shared" si="4"/>
         <v>ADMINISTERED_COMPONENTS</v>
       </c>
-      <c r="B166" s="132" t="s">
+      <c r="B166" s="131" t="s">
         <v>628</v>
       </c>
       <c r="C166" s="12" t="str">
@@ -51519,7 +51600,7 @@
         <f t="shared" si="4"/>
         <v>ADMINISTERED_COMPONENTS</v>
       </c>
-      <c r="B167" s="132" t="s">
+      <c r="B167" s="131" t="s">
         <v>628</v>
       </c>
       <c r="C167" s="12" t="str">
@@ -51697,7 +51778,7 @@
         <v>367</v>
       </c>
       <c r="I172" s="45" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.35">
@@ -51713,7 +51794,7 @@
         <v>PRIMARY_FLAG_IND</v>
       </c>
       <c r="D173" s="12" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E173" s="12" t="s">
         <v>85</v>
@@ -51728,7 +51809,7 @@
         <v>534</v>
       </c>
       <c r="I173" s="45" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.35">
@@ -52410,7 +52491,7 @@
         <v>515</v>
       </c>
       <c r="I195" s="106" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="196" spans="1:9" s="64" customFormat="1" x14ac:dyDescent="0.35">
@@ -52512,7 +52593,7 @@
         <v>OC_RECS_EXT</v>
       </c>
       <c r="B199" s="36" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C199" s="12" t="str">
         <f t="shared" si="7"/>
@@ -52543,7 +52624,7 @@
         <v>OC_RECS_EXT</v>
       </c>
       <c r="B200" s="36" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C200" s="12" t="str">
         <f t="shared" si="7"/>
@@ -52574,7 +52655,7 @@
         <v>OC_RECS_EXT</v>
       </c>
       <c r="B201" s="36" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C201" s="12" t="str">
         <f t="shared" si="7"/>
@@ -52605,7 +52686,7 @@
         <v>OC_RECS_EXT</v>
       </c>
       <c r="B202" s="36" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C202" s="12" t="str">
         <f t="shared" si="7"/>
@@ -52636,7 +52717,7 @@
         <v>OC_RECS_EXT</v>
       </c>
       <c r="B203" s="36" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C203" s="12" t="str">
         <f t="shared" si="7"/>
@@ -52667,7 +52748,7 @@
         <v>OC_RECS_EXT</v>
       </c>
       <c r="B204" s="36" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C204" s="12" t="str">
         <f t="shared" si="7"/>
@@ -52698,7 +52779,7 @@
         <v>OC_RECS_EXT</v>
       </c>
       <c r="B205" s="98" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C205" s="12" t="str">
         <f t="shared" si="7"/>
@@ -52729,7 +52810,7 @@
         <v>OC_RECS_EXT</v>
       </c>
       <c r="B206" s="36" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C206" s="12" t="str">
         <f t="shared" si="7"/>
@@ -52760,7 +52841,7 @@
         <v>OC_RECS_EXT</v>
       </c>
       <c r="B207" s="36" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C207" s="12" t="str">
         <f t="shared" si="7"/>
@@ -52945,7 +53026,7 @@
         <f t="shared" si="6"/>
         <v>REPRESENTATIONS_EXT</v>
       </c>
-      <c r="B213" s="132" t="s">
+      <c r="B213" s="131" t="s">
         <v>626</v>
       </c>
       <c r="C213" s="12" t="str">
@@ -52961,7 +53042,7 @@
       <c r="F213" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="G213" s="132" t="s">
+      <c r="G213" s="131" t="s">
         <v>618</v>
       </c>
       <c r="H213" s="60" t="s">
@@ -53061,7 +53142,7 @@
         <v>32</v>
       </c>
       <c r="I216" s="45" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="217" spans="1:9" s="64" customFormat="1" x14ac:dyDescent="0.35">
@@ -53154,7 +53235,7 @@
         <v>142</v>
       </c>
       <c r="I219" s="45" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.35">
@@ -53185,7 +53266,7 @@
         <v>142</v>
       </c>
       <c r="I220" s="45" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.35">
@@ -53216,7 +53297,7 @@
         <v>32</v>
       </c>
       <c r="I221" s="45" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="222" spans="1:9" s="64" customFormat="1" x14ac:dyDescent="0.35">
@@ -53278,7 +53359,7 @@
         <v>534</v>
       </c>
       <c r="I223" s="45" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.35">

--- a/System Documentation/Migration/Data-Migration-caDSR-2-MDR-Mapping-2-IT-0706.xlsx
+++ b/System Documentation/Migration/Data-Migration-caDSR-2-MDR-Mapping-2-IT-0706.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\meta\JIRA-28\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DCE6A92-307A-4C8C-800D-49DA4F30BF60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B433B201-4B4D-4AD7-860D-7DFEB3A78CE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="596" firstSheet="2" activeTab="6" xr2:uid="{3F80AD38-8D16-427F-8B3E-969FD7735B81}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="596" firstSheet="2" activeTab="3" xr2:uid="{3F80AD38-8D16-427F-8B3E-969FD7735B81}"/>
   </bookViews>
   <sheets>
     <sheet name="Step 1- LOV" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8807" uniqueCount="1051">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8823" uniqueCount="1056">
   <si>
     <t>LOV Type</t>
   </si>
@@ -3700,12 +3700,27 @@
       <t xml:space="preserve"> </t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">ORIGIN        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VARCHAR2(240 BYTE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCI_ORIGIN </t>
+  </si>
+  <si>
+    <t>NCI_ORIGIN_ID</t>
+  </si>
+  <si>
+    <t>New in ONEDATA 09/21</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3922,8 +3937,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4118,6 +4140,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4335,7 +4363,7 @@
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -4524,15 +4552,6 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4542,32 +4561,11 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4587,14 +4585,8 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -4608,9 +4600,48 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1 2" xfId="20" xr:uid="{AB394D63-847C-4A56-AF4C-F2B4DA9C89E0}"/>
@@ -5017,7 +5048,7 @@
       <c r="H1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="117" t="s">
+      <c r="I1" s="105" t="s">
         <v>431</v>
       </c>
       <c r="J1" s="16" t="s">
@@ -5046,7 +5077,7 @@
       <c r="H2" s="16" t="s">
         <v>433</v>
       </c>
-      <c r="I2" s="117" t="s">
+      <c r="I2" s="105" t="s">
         <v>435</v>
       </c>
       <c r="J2" s="16"/>
@@ -5433,7 +5464,7 @@
       <c r="H13" s="16" t="s">
         <v>433</v>
       </c>
-      <c r="I13" s="117" t="s">
+      <c r="I13" s="105" t="s">
         <v>434</v>
       </c>
     </row>
@@ -7242,7 +7273,7 @@
         <v>88</v>
       </c>
       <c r="D69" s="3" t="str">
-        <f t="shared" ref="D69:D136" si="3">UPPER(E69)</f>
+        <f t="shared" ref="D69:D135" si="3">UPPER(E69)</f>
         <v>MODIFIED_BY</v>
       </c>
       <c r="E69" s="3" t="s">
@@ -12725,7 +12756,7 @@
       <c r="M1" s="66" t="s">
         <v>128</v>
       </c>
-      <c r="N1" s="110" t="s">
+      <c r="N1" s="99" t="s">
         <v>431</v>
       </c>
       <c r="O1" s="66" t="s">
@@ -12734,7 +12765,7 @@
       <c r="P1" s="66" t="s">
         <v>129</v>
       </c>
-      <c r="Q1" s="91" t="s">
+      <c r="Q1" s="88" t="s">
         <v>501</v>
       </c>
       <c r="R1" s="66" t="s">
@@ -12784,7 +12815,7 @@
       <c r="M2" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="N2" s="111" t="s">
+      <c r="N2" s="112" t="s">
         <v>520</v>
       </c>
       <c r="O2" s="41" t="s">
@@ -12801,7 +12832,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" s="59" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="89" t="s">
         <v>132</v>
       </c>
       <c r="B3" s="59" t="s">
@@ -12810,14 +12841,14 @@
       <c r="C3" s="59" t="s">
         <v>871</v>
       </c>
-      <c r="D3" s="93" t="str">
+      <c r="D3" s="90" t="str">
         <f t="shared" si="0"/>
         <v>ADMINISTERED_COMPONENTS</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="F3" s="92" t="str">
+      <c r="F3" s="89" t="str">
         <f t="shared" ref="F3:F66" si="1">UPPER(C3)</f>
         <v xml:space="preserve">UNRESOLVED_ISSUE </v>
       </c>
@@ -12830,14 +12861,14 @@
       <c r="M3" s="59" t="s">
         <v>167</v>
       </c>
-      <c r="N3" s="90"/>
+      <c r="N3" s="113"/>
       <c r="O3" s="59" t="s">
         <v>168</v>
       </c>
       <c r="P3" s="59" t="s">
         <v>144</v>
       </c>
-      <c r="Q3" s="95" t="s">
+      <c r="Q3" s="91" t="s">
         <v>949</v>
       </c>
     </row>
@@ -12877,7 +12908,7 @@
       <c r="M4" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="N4" s="90"/>
+      <c r="N4" s="113"/>
       <c r="O4" s="18" t="s">
         <v>134</v>
       </c>
@@ -12927,7 +12958,7 @@
       <c r="M5" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="N5" s="90"/>
+      <c r="N5" s="113"/>
       <c r="O5" s="18" t="s">
         <v>142</v>
       </c>
@@ -12977,7 +13008,7 @@
       <c r="M6" s="45" t="s">
         <v>469</v>
       </c>
-      <c r="N6" s="90"/>
+      <c r="N6" s="113"/>
       <c r="O6" s="45" t="s">
         <v>66</v>
       </c>
@@ -13025,7 +13056,7 @@
       <c r="M7" s="18" t="s">
         <v>491</v>
       </c>
-      <c r="N7" s="90"/>
+      <c r="N7" s="113"/>
       <c r="O7" s="18" t="s">
         <v>255</v>
       </c>
@@ -13069,7 +13100,7 @@
       <c r="M8" s="18" t="s">
         <v>490</v>
       </c>
-      <c r="N8" s="90"/>
+      <c r="N8" s="113"/>
       <c r="O8" s="18" t="s">
         <v>53</v>
       </c>
@@ -13090,7 +13121,7 @@
         <f t="shared" si="0"/>
         <v>ADMINISTERED_COMPONENTS</v>
       </c>
-      <c r="E9" s="96" t="s">
+      <c r="E9" s="114" t="s">
         <v>1001</v>
       </c>
       <c r="F9" s="45" t="str">
@@ -13110,7 +13141,7 @@
       <c r="M9" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="N9" s="90"/>
+      <c r="N9" s="113"/>
       <c r="O9" s="18" t="s">
         <v>76</v>
       </c>
@@ -13133,7 +13164,7 @@
         <f t="shared" si="0"/>
         <v>ADMINISTERED_COMPONENTS</v>
       </c>
-      <c r="E10" s="97"/>
+      <c r="E10" s="115"/>
       <c r="F10" s="45" t="str">
         <f t="shared" si="1"/>
         <v>CHANGE_NOTE</v>
@@ -13147,7 +13178,7 @@
       <c r="M10" s="18" t="s">
         <v>471</v>
       </c>
-      <c r="N10" s="90"/>
+      <c r="N10" s="113"/>
       <c r="O10" s="18" t="s">
         <v>147</v>
       </c>
@@ -13169,7 +13200,7 @@
         <f t="shared" si="0"/>
         <v>ADMINISTERED_COMPONENTS</v>
       </c>
-      <c r="E11" s="98"/>
+      <c r="E11" s="116"/>
       <c r="F11" s="45" t="str">
         <f t="shared" si="1"/>
         <v>CONTE_IDSEQ</v>
@@ -13189,7 +13220,7 @@
       <c r="M11" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="N11" s="90"/>
+      <c r="N11" s="113"/>
       <c r="O11" s="18"/>
       <c r="P11" s="18"/>
       <c r="Q11" s="20" t="s">
@@ -13232,7 +13263,7 @@
       <c r="M12" s="18" t="s">
         <v>472</v>
       </c>
-      <c r="N12" s="90"/>
+      <c r="N12" s="113"/>
       <c r="O12" s="18" t="s">
         <v>521</v>
       </c>
@@ -13275,7 +13306,7 @@
       <c r="M13" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="N13" s="90"/>
+      <c r="N13" s="113"/>
       <c r="O13" s="18" t="s">
         <v>513</v>
       </c>
@@ -13318,7 +13349,7 @@
       <c r="M14" s="18" t="s">
         <v>467</v>
       </c>
-      <c r="N14" s="90"/>
+      <c r="N14" s="113"/>
       <c r="O14" s="18" t="s">
         <v>523</v>
       </c>
@@ -13360,7 +13391,7 @@
       <c r="M15" s="62" t="s">
         <v>492</v>
       </c>
-      <c r="N15" s="90"/>
+      <c r="N15" s="113"/>
       <c r="O15" s="62" t="s">
         <v>513</v>
       </c>
@@ -13383,7 +13414,7 @@
         <f t="shared" si="0"/>
         <v>ADMINISTERED_COMPONENTS</v>
       </c>
-      <c r="E16" s="96" t="s">
+      <c r="E16" s="114" t="s">
         <v>1003</v>
       </c>
       <c r="F16" s="45" t="s">
@@ -13398,7 +13429,7 @@
       <c r="M16" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="N16" s="90"/>
+      <c r="N16" s="113"/>
       <c r="O16" s="18" t="s">
         <v>76</v>
       </c>
@@ -13418,7 +13449,7 @@
         <f t="shared" si="0"/>
         <v>ADMINISTERED_COMPONENTS</v>
       </c>
-      <c r="E17" s="97"/>
+      <c r="E17" s="115"/>
       <c r="F17" s="45" t="str">
         <f t="shared" si="1"/>
         <v>LATEST_VERSION_IND</v>
@@ -13441,7 +13472,7 @@
       <c r="M17" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="N17" s="90"/>
+      <c r="N17" s="113"/>
       <c r="O17" s="18" t="s">
         <v>514</v>
       </c>
@@ -13464,7 +13495,7 @@
         <f t="shared" si="0"/>
         <v>ADMINISTERED_COMPONENTS</v>
       </c>
-      <c r="E18" s="97"/>
+      <c r="E18" s="115"/>
       <c r="F18" s="45" t="str">
         <f>UPPER(C18)</f>
         <v>PUBLIC_ID</v>
@@ -13481,7 +13512,7 @@
       <c r="M18" s="18" t="s">
         <v>289</v>
       </c>
-      <c r="N18" s="90"/>
+      <c r="N18" s="113"/>
       <c r="O18" s="18" t="s">
         <v>523</v>
       </c>
@@ -13501,7 +13532,7 @@
         <f t="shared" si="0"/>
         <v>ADMINISTERED_COMPONENTS</v>
       </c>
-      <c r="E19" s="97"/>
+      <c r="E19" s="115"/>
       <c r="F19" s="45" t="str">
         <f t="shared" si="1"/>
         <v>AC_IDSEQ</v>
@@ -13518,7 +13549,7 @@
       <c r="M19" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="N19" s="90"/>
+      <c r="N19" s="113"/>
       <c r="O19" s="18" t="s">
         <v>134</v>
       </c>
@@ -13538,7 +13569,7 @@
         <f t="shared" si="0"/>
         <v>ADMINISTERED_COMPONENTS</v>
       </c>
-      <c r="E20" s="97"/>
+      <c r="E20" s="115"/>
       <c r="F20" s="45" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">PREFERRED_DEFINITION </v>
@@ -13555,7 +13586,7 @@
       <c r="M20" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="N20" s="90"/>
+      <c r="N20" s="113"/>
       <c r="O20" s="18" t="s">
         <v>148</v>
       </c>
@@ -13578,7 +13609,7 @@
         <f t="shared" si="0"/>
         <v>ADMINISTERED_COMPONENTS</v>
       </c>
-      <c r="E21" s="97"/>
+      <c r="E21" s="115"/>
       <c r="F21" s="45" t="str">
         <f t="shared" si="1"/>
         <v>LONG_NAME</v>
@@ -13598,7 +13629,7 @@
       <c r="M21" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="N21" s="90"/>
+      <c r="N21" s="113"/>
       <c r="O21" s="18" t="s">
         <v>155</v>
       </c>
@@ -13620,7 +13651,7 @@
         <f t="shared" si="0"/>
         <v>ADMINISTERED_COMPONENTS</v>
       </c>
-      <c r="E22" s="97"/>
+      <c r="E22" s="115"/>
       <c r="F22" s="45" t="str">
         <f t="shared" si="1"/>
         <v>PREFERRED_NAME</v>
@@ -13640,7 +13671,7 @@
       <c r="M22" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="N22" s="90"/>
+      <c r="N22" s="113"/>
       <c r="O22" s="18" t="s">
         <v>155</v>
       </c>
@@ -13660,7 +13691,7 @@
         <f t="shared" si="0"/>
         <v>ADMINISTERED_COMPONENTS</v>
       </c>
-      <c r="E23" s="98"/>
+      <c r="E23" s="116"/>
       <c r="F23" s="45" t="str">
         <f t="shared" si="1"/>
         <v>VERSION</v>
@@ -13680,7 +13711,7 @@
       <c r="M23" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="N23" s="90"/>
+      <c r="N23" s="113"/>
       <c r="O23" s="18" t="s">
         <v>170</v>
       </c>
@@ -13699,7 +13730,7 @@
       <c r="D24" s="62" t="s">
         <v>1004</v>
       </c>
-      <c r="E24" s="99" t="s">
+      <c r="E24" s="92" t="s">
         <v>1004</v>
       </c>
       <c r="F24" s="62" t="str">
@@ -13727,10 +13758,10 @@
       <c r="Q24" s="22"/>
     </row>
     <row r="25" spans="1:18" s="44" customFormat="1" ht="14.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="100" t="s">
+      <c r="A25" s="108" t="s">
         <v>754</v>
       </c>
-      <c r="B25" s="101" t="s">
+      <c r="B25" s="106" t="s">
         <v>837</v>
       </c>
       <c r="C25" s="18" t="s">
@@ -13739,7 +13770,7 @@
       <c r="D25" s="62" t="s">
         <v>1000</v>
       </c>
-      <c r="E25" s="96" t="s">
+      <c r="E25" s="114" t="s">
         <v>1001</v>
       </c>
       <c r="F25" s="45" t="str">
@@ -13769,15 +13800,15 @@
       <c r="Q25" s="52"/>
     </row>
     <row r="26" spans="1:18" s="14" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="102"/>
-      <c r="B26" s="94"/>
+      <c r="A26" s="109"/>
+      <c r="B26" s="107"/>
       <c r="C26" s="18" t="s">
         <v>75</v>
       </c>
       <c r="D26" s="30" t="s">
         <v>1000</v>
       </c>
-      <c r="E26" s="97"/>
+      <c r="E26" s="115"/>
       <c r="F26" s="45" t="str">
         <f t="shared" si="1"/>
         <v>DATE_CREATED</v>
@@ -13805,15 +13836,15 @@
       <c r="Q26" s="22"/>
     </row>
     <row r="27" spans="1:18" s="14" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="102"/>
-      <c r="B27" s="94"/>
+      <c r="A27" s="109"/>
+      <c r="B27" s="107"/>
       <c r="C27" s="18" t="s">
         <v>77</v>
       </c>
       <c r="D27" s="30" t="s">
         <v>1000</v>
       </c>
-      <c r="E27" s="97"/>
+      <c r="E27" s="115"/>
       <c r="F27" s="45" t="str">
         <f t="shared" si="1"/>
         <v>DATE_MODIFIED</v>
@@ -13842,15 +13873,15 @@
       </c>
     </row>
     <row r="28" spans="1:18" s="14" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="102"/>
-      <c r="B28" s="94"/>
+      <c r="A28" s="109"/>
+      <c r="B28" s="107"/>
       <c r="C28" s="18" t="s">
         <v>78</v>
       </c>
       <c r="D28" s="30" t="s">
         <v>1000</v>
       </c>
-      <c r="E28" s="98"/>
+      <c r="E28" s="116"/>
       <c r="F28" s="45" t="str">
         <f t="shared" si="1"/>
         <v>MODIFIED_BY</v>
@@ -14067,7 +14098,7 @@
       <c r="L33" s="18" t="s">
         <v>952</v>
       </c>
-      <c r="M33" s="103" t="s">
+      <c r="M33" s="93" t="s">
         <v>966</v>
       </c>
       <c r="N33" s="86"/>
@@ -14258,7 +14289,7 @@
       <c r="K38" s="18"/>
       <c r="L38" s="18"/>
       <c r="M38" s="18"/>
-      <c r="N38" s="112"/>
+      <c r="N38" s="100"/>
       <c r="Q38" s="21"/>
     </row>
     <row r="39" spans="1:18" s="13" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.35">
@@ -14366,7 +14397,7 @@
       <c r="K41" s="18"/>
       <c r="L41" s="18"/>
       <c r="M41" s="18"/>
-      <c r="N41" s="112"/>
+      <c r="N41" s="100"/>
       <c r="Q41" s="53"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.35">
@@ -15169,7 +15200,7 @@
       <c r="I65" s="54"/>
       <c r="J65" s="54"/>
       <c r="K65" s="54"/>
-      <c r="L65" s="109" t="s">
+      <c r="L65" s="117" t="s">
         <v>838</v>
       </c>
       <c r="M65" s="54"/>
@@ -15210,12 +15241,12 @@
       <c r="K66" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="L66" s="109"/>
+      <c r="L66" s="117"/>
       <c r="M66" s="54"/>
       <c r="N66" s="6"/>
       <c r="O66" s="55"/>
       <c r="P66" s="55"/>
-      <c r="Q66" s="88" t="s">
+      <c r="Q66" s="110" t="s">
         <v>838</v>
       </c>
       <c r="R66" s="55"/>
@@ -15249,12 +15280,12 @@
       <c r="I67" s="54"/>
       <c r="J67" s="54"/>
       <c r="K67" s="54"/>
-      <c r="L67" s="109"/>
+      <c r="L67" s="117"/>
       <c r="M67" s="54"/>
       <c r="N67" s="6"/>
       <c r="O67" s="55"/>
       <c r="P67" s="55"/>
-      <c r="Q67" s="89"/>
+      <c r="Q67" s="111"/>
       <c r="R67" s="55"/>
       <c r="S67" s="55"/>
     </row>
@@ -15284,14 +15315,14 @@
       <c r="I68" s="54"/>
       <c r="J68" s="54"/>
       <c r="K68" s="54"/>
-      <c r="L68" s="109"/>
+      <c r="L68" s="117"/>
       <c r="M68" s="54"/>
       <c r="N68" s="6" t="s">
         <v>534</v>
       </c>
       <c r="O68" s="55"/>
       <c r="P68" s="55"/>
-      <c r="Q68" s="89"/>
+      <c r="Q68" s="111"/>
       <c r="R68" s="55"/>
       <c r="S68" s="55"/>
     </row>
@@ -15323,12 +15354,12 @@
       <c r="I69" s="54"/>
       <c r="J69" s="54"/>
       <c r="K69" s="54"/>
-      <c r="L69" s="109"/>
+      <c r="L69" s="117"/>
       <c r="M69" s="54"/>
       <c r="N69" s="6"/>
       <c r="O69" s="55"/>
       <c r="P69" s="55"/>
-      <c r="Q69" s="89"/>
+      <c r="Q69" s="111"/>
       <c r="R69" s="55"/>
       <c r="S69" s="55"/>
     </row>
@@ -15358,7 +15389,7 @@
       <c r="I70" s="54"/>
       <c r="J70" s="54"/>
       <c r="K70" s="54"/>
-      <c r="L70" s="109"/>
+      <c r="L70" s="117"/>
       <c r="M70" s="54"/>
       <c r="N70" s="6"/>
       <c r="O70" s="55"/>
@@ -16827,7 +16858,7 @@
       <c r="S111" s="14"/>
     </row>
     <row r="112" spans="1:19" s="17" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="104"/>
+      <c r="A112" s="94"/>
       <c r="B112" s="35" t="s">
         <v>496</v>
       </c>
@@ -16840,9 +16871,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L112" s="105"/>
-      <c r="M112" s="106"/>
-      <c r="N112" s="113"/>
+      <c r="L112" s="95"/>
+      <c r="M112" s="96"/>
+      <c r="N112" s="101"/>
       <c r="O112" s="35"/>
       <c r="P112" s="35"/>
       <c r="Q112" s="24"/>
@@ -16850,7 +16881,7 @@
       <c r="S112" s="35"/>
     </row>
     <row r="113" spans="1:19" s="17" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="104"/>
+      <c r="A113" s="94"/>
       <c r="B113" s="35"/>
       <c r="D113" s="62" t="str">
         <f t="shared" si="2"/>
@@ -16861,9 +16892,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L113" s="105"/>
-      <c r="M113" s="106"/>
-      <c r="N113" s="113"/>
+      <c r="L113" s="95"/>
+      <c r="M113" s="96"/>
+      <c r="N113" s="101"/>
       <c r="O113" s="35"/>
       <c r="P113" s="35"/>
       <c r="Q113" s="24"/>
@@ -18968,7 +18999,7 @@
       </c>
     </row>
     <row r="173" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A173" s="107" t="s">
+      <c r="A173" s="97" t="s">
         <v>177</v>
       </c>
       <c r="B173" s="37" t="s">
@@ -18977,12 +19008,12 @@
       <c r="C173" s="37" t="s">
         <v>314</v>
       </c>
-      <c r="D173" s="108" t="str">
+      <c r="D173" s="98" t="str">
         <f t="shared" si="4"/>
         <v>OC_REC_EXT</v>
       </c>
-      <c r="E173" s="108"/>
-      <c r="F173" s="107" t="str">
+      <c r="E173" s="98"/>
+      <c r="F173" s="97" t="str">
         <f t="shared" si="5"/>
         <v>S_AC_CSI_IDSEQ</v>
       </c>
@@ -19001,7 +19032,7 @@
       </c>
       <c r="N173" s="19"/>
       <c r="O173" s="37"/>
-      <c r="Q173" s="95" t="s">
+      <c r="Q173" s="91" t="s">
         <v>216</v>
       </c>
     </row>
@@ -19148,7 +19179,7 @@
       </c>
     </row>
     <row r="178" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A178" s="107" t="s">
+      <c r="A178" s="97" t="s">
         <v>177</v>
       </c>
       <c r="B178" s="37" t="s">
@@ -19157,12 +19188,12 @@
       <c r="C178" s="37" t="s">
         <v>315</v>
       </c>
-      <c r="D178" s="108" t="str">
+      <c r="D178" s="98" t="str">
         <f t="shared" si="4"/>
         <v>OC_REC_EXT</v>
       </c>
-      <c r="E178" s="108"/>
-      <c r="F178" s="107" t="str">
+      <c r="E178" s="98"/>
+      <c r="F178" s="97" t="str">
         <f t="shared" si="5"/>
         <v>T_AC_CSI_IDSEQ</v>
       </c>
@@ -19179,7 +19210,7 @@
       <c r="M178" s="37" t="s">
         <v>329</v>
       </c>
-      <c r="Q178" s="95" t="s">
+      <c r="Q178" s="91" t="s">
         <v>216</v>
       </c>
     </row>
@@ -21088,7 +21119,7 @@
       <c r="O230" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Q230" s="95" t="s">
+      <c r="Q230" s="91" t="s">
         <v>649</v>
       </c>
       <c r="R230" s="3" t="s">
@@ -24115,7 +24146,7 @@
       <c r="B74" s="14"/>
     </row>
     <row r="106" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C106" s="116"/>
+      <c r="C106" s="104"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24125,11 +24156,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA09CE4-FF96-40EE-B318-74C05C401DB1}">
-  <dimension ref="A1:N89"/>
+  <dimension ref="A1:N91"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M75" sqref="M75"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -25525,79 +25556,84 @@
         <v>509</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A50" s="18" t="s">
+    <row r="50" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="119" t="s">
         <v>132</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H50" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>138</v>
+      <c r="B50" s="120" t="s">
+        <v>702</v>
+      </c>
+      <c r="C50" s="120" t="s">
+        <v>534</v>
+      </c>
+      <c r="D50" s="120" t="s">
+        <v>534</v>
+      </c>
+      <c r="E50" s="120"/>
+      <c r="F50" s="120"/>
+      <c r="G50" s="120"/>
+      <c r="H50" s="120" t="s">
+        <v>279</v>
+      </c>
+      <c r="I50" s="121" t="s">
+        <v>1054</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>134</v>
+        <v>32</v>
+      </c>
+      <c r="L50" s="14"/>
+      <c r="M50" s="3" t="s">
+        <v>1055</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A51" s="18" t="s">
+      <c r="A51" s="119" t="s">
         <v>132</v>
       </c>
-      <c r="B51" s="14" t="s">
-        <v>634</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>703</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>582</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="H51" s="14" t="s">
+      <c r="B51" s="120" t="s">
+        <v>702</v>
+      </c>
+      <c r="C51" s="120" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D51" s="120" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E51" s="120"/>
+      <c r="F51" s="120"/>
+      <c r="G51" s="120"/>
+      <c r="H51" s="120" t="s">
         <v>279</v>
       </c>
-      <c r="I51" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="J51" s="6" t="s">
-        <v>699</v>
+      <c r="I51" s="119" t="s">
+        <v>1053</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>582</v>
+        <v>513</v>
+      </c>
+      <c r="L51" s="14"/>
+      <c r="M51" s="3" t="s">
+        <v>1055</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="B52" s="14" t="s">
-        <v>707</v>
+      <c r="B52" s="3" t="s">
+        <v>634</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>674</v>
+        <v>565</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>134</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>135</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="H52" s="14" t="s">
         <v>137</v>
@@ -25614,10 +25650,10 @@
         <v>132</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>705</v>
+        <v>634</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>582</v>
@@ -25625,11 +25661,14 @@
       <c r="E53" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="H53" s="18" t="s">
+      <c r="H53" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="I53" s="3" t="s">
-        <v>395</v>
+      <c r="I53" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>699</v>
       </c>
       <c r="K53" s="3" t="s">
         <v>582</v>
@@ -25640,10 +25679,10 @@
         <v>132</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>700</v>
+        <v>707</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>704</v>
+        <v>674</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>134</v>
@@ -25651,17 +25690,11 @@
       <c r="E54" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>136</v>
-      </c>
       <c r="H54" s="14" t="s">
-        <v>279</v>
+        <v>137</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="J54" s="6" t="s">
-        <v>699</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>134</v>
@@ -25672,13 +25705,13 @@
         <v>132</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>409</v>
+        <v>706</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>155</v>
+        <v>582</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>135</v>
@@ -25687,16 +25720,10 @@
         <v>279</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="J55" s="6" t="s">
-        <v>699</v>
+        <v>395</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="L55" s="3" t="s">
-        <v>135</v>
+        <v>582</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.35">
@@ -25707,84 +25734,90 @@
         <v>700</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="H56" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H56" s="14" t="s">
         <v>279</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>708</v>
+        <v>138</v>
       </c>
       <c r="J56" s="6" t="s">
         <v>699</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B57" s="14"/>
+      <c r="A57" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>700</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H57" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>699</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="18" t="s">
         <v>132</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>677</v>
+        <v>700</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>534</v>
+        <v>709</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>534</v>
+        <v>147</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>137</v>
+        <v>279</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>460</v>
+        <v>699</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A59" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="B59" s="14" t="s">
-        <v>677</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>674</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="H59" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J59" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>135</v>
-      </c>
+      <c r="B59" s="14"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="18" t="s">
@@ -25794,16 +25827,19 @@
         <v>677</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>617</v>
+        <v>534</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>147</v>
+        <v>534</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>534</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>137</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>394</v>
+        <v>710</v>
       </c>
       <c r="J60" s="6" t="s">
         <v>460</v>
@@ -25817,22 +25853,25 @@
         <v>677</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>711</v>
+        <v>674</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>32</v>
+        <v>134</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="H61" s="3" t="s">
-        <v>391</v>
+      <c r="H61" s="14" t="s">
+        <v>137</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>289</v>
+        <v>138</v>
+      </c>
+      <c r="J61" s="6" t="s">
+        <v>460</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>32</v>
+        <v>134</v>
       </c>
       <c r="L61" s="3" t="s">
         <v>135</v>
@@ -25846,25 +25885,19 @@
         <v>677</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>537</v>
+        <v>617</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>391</v>
+        <v>137</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>135</v>
+        <v>394</v>
+      </c>
+      <c r="J62" s="6" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.35">
@@ -25874,26 +25907,26 @@
       <c r="B63" s="14" t="s">
         <v>677</v>
       </c>
-      <c r="C63" s="18" t="s">
-        <v>71</v>
+      <c r="C63" s="3" t="s">
+        <v>711</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>147</v>
+        <v>32</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="H63" s="3" t="s">
         <v>391</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="J63" s="6" t="s">
-        <v>460</v>
+        <v>289</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="M63" s="3" t="s">
-        <v>509</v>
+        <v>32</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.35">
@@ -25904,25 +25937,25 @@
         <v>677</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>680</v>
+        <v>537</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>147</v>
+        <v>170</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>391</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="J64" s="6" t="s">
-        <v>460</v>
+        <v>171</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="M64" s="3" t="s">
-        <v>509</v>
+        <v>170</v>
+      </c>
+      <c r="L64" s="3" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.35">
@@ -25932,29 +25965,23 @@
       <c r="B65" s="14" t="s">
         <v>677</v>
       </c>
-      <c r="C65" s="3" t="s">
-        <v>74</v>
+      <c r="C65" s="18" t="s">
+        <v>71</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="E65" s="14" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="I65" s="18" t="s">
-        <v>22</v>
+      <c r="I65" s="3" t="s">
+        <v>392</v>
       </c>
       <c r="J65" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="K65" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="L65" s="3" t="s">
-        <v>135</v>
+      <c r="K65" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="M65" s="3" t="s">
         <v>509</v>
@@ -25968,28 +25995,25 @@
         <v>677</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>75</v>
+        <v>680</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E66" s="14" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="I66" s="18" t="s">
-        <v>25</v>
+      <c r="I66" s="3" t="s">
+        <v>393</v>
       </c>
       <c r="J66" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="K66" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>135</v>
+      <c r="K66" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.35">
@@ -26000,25 +26024,34 @@
         <v>677</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>76</v>
+        <v>161</v>
+      </c>
+      <c r="E67" s="14" t="s">
+        <v>135</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>391</v>
       </c>
       <c r="I67" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J67" s="6" t="s">
         <v>460</v>
       </c>
       <c r="K67" s="14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+      <c r="L67" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="M67" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68" s="18" t="s">
         <v>132</v>
       </c>
@@ -26026,108 +26059,103 @@
         <v>677</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
+        <v>76</v>
+      </c>
+      <c r="E68" s="14" t="s">
+        <v>135</v>
+      </c>
       <c r="H68" s="3" t="s">
         <v>391</v>
       </c>
       <c r="I68" s="18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J68" s="6" t="s">
         <v>460</v>
       </c>
       <c r="K68" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="L68" s="14"/>
-      <c r="M68" s="3" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="18"/>
-      <c r="B69" s="14"/>
-      <c r="J69" s="8"/>
+        <v>76</v>
+      </c>
+      <c r="L68" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A69" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>677</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="I69" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J69" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="K69" s="14" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="70" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="18" t="s">
-        <v>283</v>
-      </c>
-      <c r="B70" s="18" t="s">
-        <v>713</v>
-      </c>
-      <c r="C70" s="18" t="s">
-        <v>712</v>
+        <v>132</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>677</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>135</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
       <c r="H70" s="3" t="s">
-        <v>294</v>
+        <v>391</v>
       </c>
       <c r="I70" s="18" t="s">
-        <v>138</v>
+        <v>30</v>
       </c>
       <c r="J70" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="K70" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="18" t="s">
-        <v>283</v>
-      </c>
-      <c r="B71" s="18" t="s">
-        <v>713</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="I71" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="J71" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="K71" s="3" t="s">
-        <v>582</v>
-      </c>
-      <c r="L71" s="3"/>
-      <c r="M71" s="3"/>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.35">
+        <v>460</v>
+      </c>
+      <c r="K70" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="L70" s="14"/>
+      <c r="M70" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="18"/>
+      <c r="B71" s="14"/>
+      <c r="J71" s="8"/>
+    </row>
+    <row r="72" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="18" t="s">
         <v>283</v>
       </c>
       <c r="B72" s="18" t="s">
         <v>713</v>
       </c>
-      <c r="C72" s="3" t="s">
-        <v>717</v>
+      <c r="C72" s="18" t="s">
+        <v>712</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>134</v>
@@ -26135,19 +26163,18 @@
       <c r="E72" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
       <c r="H72" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="J72" s="6"/>
-      <c r="K72" s="3"/>
-      <c r="L72" s="3"/>
-      <c r="M72" s="3"/>
-      <c r="N72" s="3"/>
+        <v>294</v>
+      </c>
+      <c r="I72" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="J72" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="73" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="18" t="s">
@@ -26157,27 +26184,27 @@
         <v>713</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>715</v>
+        <v>534</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>134</v>
+        <v>534</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>135</v>
+        <v>534</v>
       </c>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3" t="s">
-        <v>716</v>
+        <v>331</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>138</v>
+        <v>341</v>
       </c>
       <c r="J73" s="6" t="s">
         <v>458</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>134</v>
+        <v>582</v>
       </c>
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
@@ -26191,30 +26218,26 @@
         <v>713</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>534</v>
+        <v>717</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>534</v>
+        <v>134</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>534</v>
+        <v>135</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3" t="s">
-        <v>331</v>
+        <v>534</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="J74" s="6" t="s">
-        <v>458</v>
-      </c>
+        <v>534</v>
+      </c>
+      <c r="J74" s="6"/>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
-      <c r="M74" s="3" t="s">
-        <v>718</v>
-      </c>
+      <c r="M74" s="3"/>
       <c r="N74" s="3"/>
     </row>
     <row r="75" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.35">
@@ -26225,10 +26248,10 @@
         <v>713</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>135</v>
@@ -26236,16 +26259,16 @@
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3" t="s">
-        <v>331</v>
+        <v>716</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>333</v>
+        <v>138</v>
       </c>
       <c r="J75" s="6" t="s">
         <v>458</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
@@ -26259,33 +26282,29 @@
         <v>713</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>74</v>
+        <v>534</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="E76" s="14" t="s">
-        <v>135</v>
+        <v>534</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>534</v>
       </c>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="I76" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="J76" s="7" t="s">
-        <v>823</v>
-      </c>
-      <c r="K76" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>135</v>
-      </c>
+      <c r="I76" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="J76" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
       <c r="M76" s="3" t="s">
-        <v>509</v>
+        <v>718</v>
       </c>
       <c r="N76" s="3"/>
     </row>
@@ -26297,12 +26316,12 @@
         <v>713</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>75</v>
+        <v>714</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E77" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="E77" s="3" t="s">
         <v>135</v>
       </c>
       <c r="F77" s="3"/>
@@ -26310,18 +26329,16 @@
       <c r="H77" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="I77" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="J77" s="7" t="s">
-        <v>823</v>
-      </c>
-      <c r="K77" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="L77" s="3" t="s">
-        <v>135</v>
-      </c>
+      <c r="I77" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="J77" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="K77" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L77" s="3"/>
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
     </row>
@@ -26333,28 +26350,34 @@
         <v>713</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E78" s="3"/>
+        <v>161</v>
+      </c>
+      <c r="E78" s="14" t="s">
+        <v>135</v>
+      </c>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3" t="s">
         <v>331</v>
       </c>
       <c r="I78" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J78" s="7" t="s">
         <v>823</v>
       </c>
       <c r="K78" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="L78" s="3"/>
-      <c r="M78" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="L78" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="M78" s="3" t="s">
+        <v>509</v>
+      </c>
       <c r="N78" s="3"/>
     </row>
     <row r="79" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.35">
@@ -26365,115 +26388,117 @@
         <v>713</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="E79" s="3"/>
+        <v>76</v>
+      </c>
+      <c r="E79" s="14" t="s">
+        <v>135</v>
+      </c>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
       <c r="H79" s="3" t="s">
         <v>331</v>
       </c>
       <c r="I79" s="18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J79" s="7" t="s">
         <v>823</v>
       </c>
       <c r="K79" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="L79" s="14"/>
-      <c r="M79" s="3" t="s">
-        <v>509</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="L79" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="M79" s="3"/>
       <c r="N79" s="3"/>
     </row>
     <row r="80" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="18"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
+      <c r="A80" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="B80" s="18" t="s">
+        <v>713</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="6"/>
-      <c r="K80" s="3"/>
+      <c r="H80" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="I80" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J80" s="7" t="s">
+        <v>823</v>
+      </c>
+      <c r="K80" s="14" t="s">
+        <v>76</v>
+      </c>
       <c r="L80" s="3"/>
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
     </row>
     <row r="81" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>720</v>
+        <v>283</v>
+      </c>
+      <c r="B81" s="18" t="s">
+        <v>713</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>584</v>
+        <v>78</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>135</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="E81" s="3"/>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
       <c r="H81" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J81" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="L81" s="3"/>
-      <c r="M81" s="3"/>
+        <v>331</v>
+      </c>
+      <c r="I81" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J81" s="7" t="s">
+        <v>823</v>
+      </c>
+      <c r="K81" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="L81" s="14"/>
+      <c r="M81" s="3" t="s">
+        <v>509</v>
+      </c>
       <c r="N81" s="3"/>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A82" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>720</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="H82" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="I82" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="J82" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="K82" s="3" t="s">
-        <v>582</v>
-      </c>
-      <c r="M82" s="3" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="18"/>
+      <c r="B82" s="18"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="18" t="s">
         <v>132</v>
       </c>
@@ -26481,10 +26506,18 @@
         <v>720</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>722</v>
-      </c>
+        <v>584</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
       <c r="H83" s="3" t="s">
-        <v>294</v>
+        <v>137</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>138</v>
@@ -26495,6 +26528,9 @@
       <c r="K83" s="3" t="s">
         <v>134</v>
       </c>
+      <c r="L83" s="3"/>
+      <c r="M83" s="3"/>
+      <c r="N83" s="3"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A84" s="18" t="s">
@@ -26516,7 +26552,7 @@
         <v>390</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>341</v>
+        <v>302</v>
       </c>
       <c r="J84" s="6" t="s">
         <v>459</v>
@@ -26525,7 +26561,7 @@
         <v>582</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.35">
@@ -26536,22 +26572,19 @@
         <v>720</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>534</v>
+        <v>722</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>390</v>
+        <v>294</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>719</v>
+        <v>138</v>
       </c>
       <c r="J85" s="6" t="s">
         <v>459</v>
+      </c>
+      <c r="K85" s="3" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.35">
@@ -26562,29 +26595,28 @@
         <v>720</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>74</v>
+        <v>534</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="E86" s="14"/>
+        <v>534</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>534</v>
+      </c>
       <c r="H86" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="I86" s="18" t="s">
-        <v>22</v>
+      <c r="I86" s="3" t="s">
+        <v>341</v>
       </c>
       <c r="J86" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="K86" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="L86" s="3" t="s">
-        <v>135</v>
+      <c r="K86" s="3" t="s">
+        <v>582</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>509</v>
+        <v>723</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.35">
@@ -26595,26 +26627,22 @@
         <v>720</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>75</v>
+        <v>534</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E87" s="14"/>
+        <v>534</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>534</v>
+      </c>
       <c r="H87" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="I87" s="18" t="s">
-        <v>25</v>
+      <c r="I87" s="3" t="s">
+        <v>719</v>
       </c>
       <c r="J87" s="6" t="s">
         <v>459</v>
-      </c>
-      <c r="K87" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="L87" s="3" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.35">
@@ -26625,25 +26653,32 @@
         <v>720</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>76</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="E88" s="14"/>
       <c r="H88" s="3" t="s">
         <v>390</v>
       </c>
       <c r="I88" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J88" s="6" t="s">
         <v>459</v>
       </c>
       <c r="K88" s="14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+      <c r="L88" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="M88" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A89" s="18" t="s">
         <v>132</v>
       </c>
@@ -26651,28 +26686,84 @@
         <v>720</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
+        <v>76</v>
+      </c>
+      <c r="E89" s="14"/>
       <c r="H89" s="3" t="s">
         <v>390</v>
       </c>
       <c r="I89" s="18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J89" s="6" t="s">
         <v>459</v>
       </c>
       <c r="K89" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A90" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="I90" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J90" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="K90" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="I91" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J91" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="K91" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="L89" s="14"/>
-      <c r="M89" s="3" t="s">
+      <c r="L91" s="14"/>
+      <c r="M91" s="3" t="s">
         <v>509</v>
       </c>
     </row>
@@ -28594,7 +28685,7 @@
       <c r="C74" s="28" t="s">
         <v>750</v>
       </c>
-      <c r="D74" s="114" t="s">
+      <c r="D74" s="102" t="s">
         <v>631</v>
       </c>
       <c r="E74" s="49" t="s">
@@ -28612,8 +28703,8 @@
       <c r="N74" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="P74" s="114"/>
-      <c r="Q74" s="114" t="s">
+      <c r="P74" s="102"/>
+      <c r="Q74" s="102" t="s">
         <v>782</v>
       </c>
     </row>
@@ -28805,7 +28896,7 @@
       <c r="C82" s="50" t="s">
         <v>829</v>
       </c>
-      <c r="D82" s="115"/>
+      <c r="D82" s="103"/>
       <c r="E82" s="64"/>
       <c r="F82" s="42"/>
       <c r="G82" s="42"/>
@@ -28813,9 +28904,9 @@
       <c r="I82" s="42"/>
       <c r="J82" s="42"/>
       <c r="K82" s="30"/>
-      <c r="L82" s="115"/>
+      <c r="L82" s="103"/>
       <c r="M82" s="33"/>
-      <c r="N82" s="115"/>
+      <c r="N82" s="103"/>
       <c r="P82" s="64"/>
     </row>
     <row r="83" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
@@ -28926,7 +29017,7 @@
       <c r="C87" s="50" t="s">
         <v>830</v>
       </c>
-      <c r="D87" s="115"/>
+      <c r="D87" s="103"/>
       <c r="E87" s="64"/>
       <c r="F87" s="42"/>
       <c r="G87" s="42"/>
@@ -30548,7 +30639,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="30" customFormat="1" ht="87" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" s="30" customFormat="1" ht="72.5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A15" s="64" t="s">
         <v>132</v>
       </c>
@@ -30605,12 +30696,12 @@
       <c r="M16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O16" s="94" t="s">
+      <c r="O16" s="107" t="s">
         <v>825</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="31" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="115" t="s">
+      <c r="A17" s="103" t="s">
         <v>132</v>
       </c>
       <c r="B17" s="31" t="s">
@@ -30634,7 +30725,7 @@
       <c r="M17" s="31" t="s">
         <v>731</v>
       </c>
-      <c r="O17" s="94"/>
+      <c r="O17" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -30649,7 +30740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{386CEFB1-01C1-4204-8D32-61CA86766930}">
   <dimension ref="A1:L82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
@@ -30736,7 +30827,7 @@
       <c r="K2" s="3" t="s">
         <v>843</v>
       </c>
-      <c r="L2" s="102" t="s">
+      <c r="L2" s="109" t="s">
         <v>978</v>
       </c>
     </row>
@@ -30771,7 +30862,7 @@
       <c r="K3" s="3" t="s">
         <v>843</v>
       </c>
-      <c r="L3" s="102"/>
+      <c r="L3" s="109"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
@@ -30804,7 +30895,7 @@
       <c r="K4" s="3" t="s">
         <v>843</v>
       </c>
-      <c r="L4" s="102"/>
+      <c r="L4" s="109"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -30837,7 +30928,7 @@
       <c r="K5" s="3" t="s">
         <v>843</v>
       </c>
-      <c r="L5" s="102"/>
+      <c r="L5" s="109"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
@@ -30867,7 +30958,7 @@
       <c r="K6" s="3" t="s">
         <v>843</v>
       </c>
-      <c r="L6" s="102"/>
+      <c r="L6" s="109"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
@@ -30897,7 +30988,7 @@
       <c r="K7" s="3" t="s">
         <v>843</v>
       </c>
-      <c r="L7" s="102"/>
+      <c r="L7" s="109"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
@@ -30927,7 +31018,7 @@
       <c r="K8" s="3" t="s">
         <v>843</v>
       </c>
-      <c r="L8" s="102"/>
+      <c r="L8" s="109"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
@@ -30960,7 +31051,7 @@
       <c r="K9" s="3" t="s">
         <v>843</v>
       </c>
-      <c r="L9" s="102"/>
+      <c r="L9" s="109"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
@@ -30993,7 +31084,7 @@
       <c r="K10" s="3" t="s">
         <v>843</v>
       </c>
-      <c r="L10" s="102"/>
+      <c r="L10" s="109"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -31023,7 +31114,7 @@
       <c r="K11" s="3" t="s">
         <v>843</v>
       </c>
-      <c r="L11" s="102"/>
+      <c r="L11" s="109"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
@@ -31111,7 +31202,7 @@
       <c r="K15" s="3" t="s">
         <v>843</v>
       </c>
-      <c r="L15" s="102" t="s">
+      <c r="L15" s="109" t="s">
         <v>978</v>
       </c>
     </row>
@@ -31146,7 +31237,7 @@
       <c r="K16" s="3" t="s">
         <v>843</v>
       </c>
-      <c r="L16" s="102"/>
+      <c r="L16" s="109"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
@@ -31176,7 +31267,7 @@
       <c r="K17" s="3" t="s">
         <v>843</v>
       </c>
-      <c r="L17" s="102"/>
+      <c r="L17" s="109"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
@@ -31209,7 +31300,7 @@
       <c r="K18" s="3" t="s">
         <v>843</v>
       </c>
-      <c r="L18" s="102"/>
+      <c r="L18" s="109"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
@@ -31239,7 +31330,7 @@
       <c r="K19" s="3" t="s">
         <v>843</v>
       </c>
-      <c r="L19" s="102"/>
+      <c r="L19" s="109"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
@@ -31269,7 +31360,7 @@
       <c r="K20" s="3" t="s">
         <v>843</v>
       </c>
-      <c r="L20" s="102"/>
+      <c r="L20" s="109"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
@@ -31302,7 +31393,7 @@
       <c r="K21" s="3" t="s">
         <v>843</v>
       </c>
-      <c r="L21" s="102"/>
+      <c r="L21" s="109"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
@@ -31335,7 +31426,7 @@
       <c r="K22" s="3" t="s">
         <v>843</v>
       </c>
-      <c r="L22" s="102"/>
+      <c r="L22" s="109"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
@@ -31365,7 +31456,7 @@
       <c r="K23" s="3" t="s">
         <v>843</v>
       </c>
-      <c r="L23" s="102"/>
+      <c r="L23" s="109"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
@@ -31395,7 +31486,7 @@
       <c r="K24" s="3" t="s">
         <v>843</v>
       </c>
-      <c r="L24" s="102"/>
+      <c r="L24" s="109"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
@@ -32274,7 +32365,7 @@
       <c r="K55" s="41" t="s">
         <v>843</v>
       </c>
-      <c r="L55" s="102" t="s">
+      <c r="L55" s="109" t="s">
         <v>978</v>
       </c>
     </row>
@@ -32306,7 +32397,7 @@
       <c r="K56" s="41" t="s">
         <v>843</v>
       </c>
-      <c r="L56" s="102"/>
+      <c r="L56" s="109"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
@@ -32342,7 +32433,7 @@
       <c r="K57" s="41" t="s">
         <v>843</v>
       </c>
-      <c r="L57" s="102"/>
+      <c r="L57" s="109"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
@@ -32378,7 +32469,7 @@
       <c r="K58" s="41" t="s">
         <v>843</v>
       </c>
-      <c r="L58" s="102"/>
+      <c r="L58" s="109"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
@@ -32414,7 +32505,7 @@
       <c r="K59" s="41" t="s">
         <v>843</v>
       </c>
-      <c r="L59" s="102"/>
+      <c r="L59" s="109"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
@@ -32447,7 +32538,7 @@
       <c r="K60" s="41" t="s">
         <v>843</v>
       </c>
-      <c r="L60" s="102"/>
+      <c r="L60" s="109"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
@@ -32483,7 +32574,7 @@
       <c r="K61" s="41" t="s">
         <v>843</v>
       </c>
-      <c r="L61" s="102"/>
+      <c r="L61" s="109"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
@@ -32519,7 +32610,7 @@
       <c r="K62" s="41" t="s">
         <v>843</v>
       </c>
-      <c r="L62" s="102"/>
+      <c r="L62" s="109"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
@@ -32555,7 +32646,7 @@
       <c r="K63" s="41" t="s">
         <v>843</v>
       </c>
-      <c r="L63" s="102"/>
+      <c r="L63" s="109"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
@@ -32588,7 +32679,7 @@
       <c r="K64" s="41" t="s">
         <v>843</v>
       </c>
-      <c r="L64" s="102"/>
+      <c r="L64" s="109"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
@@ -32621,7 +32712,7 @@
       <c r="K65" s="41" t="s">
         <v>843</v>
       </c>
-      <c r="L65" s="102"/>
+      <c r="L65" s="109"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
@@ -32654,7 +32745,7 @@
       <c r="K66" s="41" t="s">
         <v>843</v>
       </c>
-      <c r="L66" s="102"/>
+      <c r="L66" s="109"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
@@ -32687,7 +32778,7 @@
       <c r="K67" s="41" t="s">
         <v>843</v>
       </c>
-      <c r="L67" s="102"/>
+      <c r="L67" s="109"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
@@ -32717,7 +32808,7 @@
       <c r="K68" s="41" t="s">
         <v>843</v>
       </c>
-      <c r="L68" s="102"/>
+      <c r="L68" s="109"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
@@ -32750,7 +32841,7 @@
       <c r="K69" s="41" t="s">
         <v>843</v>
       </c>
-      <c r="L69" s="102"/>
+      <c r="L69" s="109"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
@@ -32783,7 +32874,7 @@
       <c r="K70" s="41" t="s">
         <v>843</v>
       </c>
-      <c r="L70" s="102"/>
+      <c r="L70" s="109"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
@@ -32813,7 +32904,7 @@
       <c r="K71" s="41" t="s">
         <v>843</v>
       </c>
-      <c r="L71" s="102"/>
+      <c r="L71" s="109"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
@@ -32849,7 +32940,7 @@
       <c r="K73" s="3" t="s">
         <v>934</v>
       </c>
-      <c r="L73" s="102" t="s">
+      <c r="L73" s="109" t="s">
         <v>978</v>
       </c>
     </row>
@@ -32887,7 +32978,7 @@
       <c r="K74" s="3" t="s">
         <v>934</v>
       </c>
-      <c r="L74" s="102"/>
+      <c r="L74" s="109"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
@@ -32923,7 +33014,7 @@
       <c r="K75" s="3" t="s">
         <v>934</v>
       </c>
-      <c r="L75" s="102"/>
+      <c r="L75" s="109"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
@@ -32959,7 +33050,7 @@
       <c r="K76" s="3" t="s">
         <v>934</v>
       </c>
-      <c r="L76" s="102"/>
+      <c r="L76" s="109"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
@@ -32995,7 +33086,7 @@
       <c r="K77" s="3" t="s">
         <v>934</v>
       </c>
-      <c r="L77" s="102"/>
+      <c r="L77" s="109"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
@@ -33031,7 +33122,7 @@
       <c r="K78" s="3" t="s">
         <v>934</v>
       </c>
-      <c r="L78" s="102"/>
+      <c r="L78" s="109"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
@@ -33067,7 +33158,7 @@
       <c r="K79" s="3" t="s">
         <v>934</v>
       </c>
-      <c r="L79" s="102"/>
+      <c r="L79" s="109"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
@@ -33103,7 +33194,7 @@
       <c r="K80" s="3" t="s">
         <v>934</v>
       </c>
-      <c r="L80" s="102"/>
+      <c r="L80" s="109"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
@@ -33133,7 +33224,7 @@
       <c r="K81" s="3" t="s">
         <v>934</v>
       </c>
-      <c r="L81" s="102"/>
+      <c r="L81" s="109"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
@@ -33163,7 +33254,7 @@
       <c r="K82" s="3" t="s">
         <v>934</v>
       </c>
-      <c r="L82" s="102"/>
+      <c r="L82" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/System Documentation/Migration/Data-Migration-caDSR-2-MDR-Mapping-2-IT-0706.xlsx
+++ b/System Documentation/Migration/Data-Migration-caDSR-2-MDR-Mapping-2-IT-0706.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\meta\JIRA-28\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D67546D-334D-476B-A940-43AC02E919B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55DA6602-9725-4239-9264-F627F0732337}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="596" xr2:uid="{3F80AD38-8D16-427F-8B3E-969FD7735B81}"/>
   </bookViews>
@@ -6533,7 +6533,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11449,7 +11449,7 @@
         <v>1044</v>
       </c>
       <c r="J154" s="3" t="s">
-        <v>255</v>
+        <v>32</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.35">
@@ -26437,7 +26437,7 @@
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L62" sqref="L62"/>
+      <selection pane="bottomLeft" activeCell="K60" sqref="K60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -28228,7 +28228,7 @@
         <v>458</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>255</v>
+        <v>32</v>
       </c>
       <c r="L60" s="3" t="s">
         <v>510</v>
